--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI234"/>
+  <dimension ref="A1:AI239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23536,6 +23536,557 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>349.35</v>
+      </c>
+      <c r="C235" t="n">
+        <v>349.72</v>
+      </c>
+      <c r="D235" t="n">
+        <v>349.8746153846154</v>
+      </c>
+      <c r="E235" t="n">
+        <v>345.4052631578948</v>
+      </c>
+      <c r="F235" t="n">
+        <v>349.08</v>
+      </c>
+      <c r="G235" t="n">
+        <v>348.33</v>
+      </c>
+      <c r="H235" t="n">
+        <v>360.2146153846153</v>
+      </c>
+      <c r="I235" t="n">
+        <v>376.3866666666667</v>
+      </c>
+      <c r="J235" t="n">
+        <v>384.9204347826087</v>
+      </c>
+      <c r="K235" t="n">
+        <v>389.5381818181818</v>
+      </c>
+      <c r="L235" t="n">
+        <v>382.84</v>
+      </c>
+      <c r="M235" t="n">
+        <v>382.21</v>
+      </c>
+      <c r="N235" t="n">
+        <v>376.81</v>
+      </c>
+      <c r="O235" t="n">
+        <v>380.8181818181818</v>
+      </c>
+      <c r="P235" t="n">
+        <v>370.9446153846154</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>378.4717647058824</v>
+      </c>
+      <c r="R235" t="n">
+        <v>382.8933333333334</v>
+      </c>
+      <c r="S235" t="n">
+        <v>377.6266666666667</v>
+      </c>
+      <c r="T235" t="n">
+        <v>397.0966666666667</v>
+      </c>
+      <c r="U235" t="n">
+        <v>390.3466666666667</v>
+      </c>
+      <c r="V235" t="n">
+        <v>399.1133333333333</v>
+      </c>
+      <c r="W235" t="n">
+        <v>395.7746153846153</v>
+      </c>
+      <c r="X235" t="n">
+        <v>397.5446153846154</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>397.9</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>398.9055555555556</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>392.8555555555556</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>386.55</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>370.7366666666667</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>369.8881818181818</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>366.2481818181818</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>379.3781818181818</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>388.0066666666667</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>380.1281818181818</v>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>353.87</v>
+      </c>
+      <c r="C236" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="D236" t="n">
+        <v>351.3623076923077</v>
+      </c>
+      <c r="E236" t="n">
+        <v>350.3110526315789</v>
+      </c>
+      <c r="F236" t="n">
+        <v>352.5571428571428</v>
+      </c>
+      <c r="G236" t="n">
+        <v>349.8571428571428</v>
+      </c>
+      <c r="H236" t="n">
+        <v>356.9923076923077</v>
+      </c>
+      <c r="I236" t="n">
+        <v>359.05</v>
+      </c>
+      <c r="J236" t="n">
+        <v>376.0056521739131</v>
+      </c>
+      <c r="K236" t="n">
+        <v>378.4327272727273</v>
+      </c>
+      <c r="L236" t="n">
+        <v>380.9171428571429</v>
+      </c>
+      <c r="M236" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="N236" t="n">
+        <v>375.53</v>
+      </c>
+      <c r="O236" t="n">
+        <v>370.5727272727273</v>
+      </c>
+      <c r="P236" t="n">
+        <v>368.6123076923077</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>374.5852941176471</v>
+      </c>
+      <c r="R236" t="n">
+        <v>363.23</v>
+      </c>
+      <c r="S236" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="T236" t="n">
+        <v>377.35</v>
+      </c>
+      <c r="U236" t="n">
+        <v>373.88</v>
+      </c>
+      <c r="V236" t="n">
+        <v>380.74</v>
+      </c>
+      <c r="W236" t="n">
+        <v>383.8923076923077</v>
+      </c>
+      <c r="X236" t="n">
+        <v>392.2723076923077</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>398.72</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>388.9766666666667</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>382.8366666666667</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>379.14</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>364.8127272727273</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>370.0427272727272</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>377.5827272727273</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>387.67</v>
+      </c>
+      <c r="AH236" t="inlineStr"/>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>365.98</v>
+      </c>
+      <c r="C237" t="n">
+        <v>363.91</v>
+      </c>
+      <c r="D237" t="n">
+        <v>377.1238461538462</v>
+      </c>
+      <c r="E237" t="n">
+        <v>364.0705263157895</v>
+      </c>
+      <c r="F237" t="n">
+        <v>365.7742857142857</v>
+      </c>
+      <c r="G237" t="n">
+        <v>383.7942857142857</v>
+      </c>
+      <c r="H237" t="n">
+        <v>376.6438461538461</v>
+      </c>
+      <c r="I237" t="n">
+        <v>395.8266666666667</v>
+      </c>
+      <c r="J237" t="n">
+        <v>391.7482608695652</v>
+      </c>
+      <c r="K237" t="n">
+        <v>407.9227272727272</v>
+      </c>
+      <c r="L237" t="n">
+        <v>399.3142857142857</v>
+      </c>
+      <c r="M237" t="n">
+        <v>398.71</v>
+      </c>
+      <c r="N237" t="n">
+        <v>391.66</v>
+      </c>
+      <c r="O237" t="n">
+        <v>397.7127272727273</v>
+      </c>
+      <c r="P237" t="n">
+        <v>388.4538461538461</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>385.3358823529412</v>
+      </c>
+      <c r="R237" t="n">
+        <v>379.3233333333333</v>
+      </c>
+      <c r="S237" t="n">
+        <v>385.3466666666667</v>
+      </c>
+      <c r="T237" t="n">
+        <v>388.9966666666666</v>
+      </c>
+      <c r="U237" t="n">
+        <v>400.8866666666667</v>
+      </c>
+      <c r="V237" t="n">
+        <v>398.8633333333333</v>
+      </c>
+      <c r="W237" t="n">
+        <v>399.3138461538462</v>
+      </c>
+      <c r="X237" t="n">
+        <v>403.9338461538461</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>417.57</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>408.6088888888889</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>401.0288888888889</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>393.15</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>378.6266666666667</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>375.2327272727272</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>378.2827272727272</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>389.6227272727273</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>399.2366666666667</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>380.6427272727273</v>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>364.69</v>
+      </c>
+      <c r="C238" t="n">
+        <v>367.7600000000001</v>
+      </c>
+      <c r="D238" t="n">
+        <v>362.5653846153846</v>
+      </c>
+      <c r="E238" t="n">
+        <v>360.1163157894737</v>
+      </c>
+      <c r="F238" t="n">
+        <v>360.9828571428571</v>
+      </c>
+      <c r="G238" t="n">
+        <v>356.0928571428572</v>
+      </c>
+      <c r="H238" t="n">
+        <v>362.2253846153847</v>
+      </c>
+      <c r="I238" t="n">
+        <v>370.5666666666667</v>
+      </c>
+      <c r="J238" t="n">
+        <v>385.3491304347826</v>
+      </c>
+      <c r="K238" t="n">
+        <v>390.0581818181818</v>
+      </c>
+      <c r="L238" t="n">
+        <v>392.3528571428572</v>
+      </c>
+      <c r="M238" t="n">
+        <v>385.73</v>
+      </c>
+      <c r="N238" t="n">
+        <v>373.63</v>
+      </c>
+      <c r="O238" t="n">
+        <v>374.0181818181818</v>
+      </c>
+      <c r="P238" t="n">
+        <v>375.7353846153847</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>381.1688235294118</v>
+      </c>
+      <c r="R238" t="n">
+        <v>373.2333333333333</v>
+      </c>
+      <c r="S238" t="n">
+        <v>372.9066666666667</v>
+      </c>
+      <c r="T238" t="n">
+        <v>369.5466666666667</v>
+      </c>
+      <c r="U238" t="n">
+        <v>381.3266666666667</v>
+      </c>
+      <c r="V238" t="n">
+        <v>384.4733333333334</v>
+      </c>
+      <c r="W238" t="n">
+        <v>389.1253846153846</v>
+      </c>
+      <c r="X238" t="n">
+        <v>394.6553846153847</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>389.6255555555555</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>384.4555555555555</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>389.03</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>373.7166666666667</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>374.9881818181818</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>377.1881818181818</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>386.2781818181818</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>395.7666666666667</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>386.3981818181818</v>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>364.89</v>
+      </c>
+      <c r="C239" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>357.6353846153846</v>
+      </c>
+      <c r="E239" t="n">
+        <v>353.9973684210527</v>
+      </c>
+      <c r="F239" t="n">
+        <v>356.9928571428572</v>
+      </c>
+      <c r="G239" t="n">
+        <v>362.9428571428572</v>
+      </c>
+      <c r="H239" t="n">
+        <v>367.9253846153846</v>
+      </c>
+      <c r="I239" t="n">
+        <v>378.64</v>
+      </c>
+      <c r="J239" t="n">
+        <v>381.5060869565218</v>
+      </c>
+      <c r="K239" t="n">
+        <v>386.7127272727273</v>
+      </c>
+      <c r="L239" t="n">
+        <v>381.9228571428571</v>
+      </c>
+      <c r="M239" t="n">
+        <v>385.03</v>
+      </c>
+      <c r="N239" t="n">
+        <v>379.31</v>
+      </c>
+      <c r="O239" t="n">
+        <v>378.5627272727273</v>
+      </c>
+      <c r="P239" t="n">
+        <v>371.1253846153846</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>371.4929411764706</v>
+      </c>
+      <c r="R239" t="n">
+        <v>374.84</v>
+      </c>
+      <c r="S239" t="n">
+        <v>373.18</v>
+      </c>
+      <c r="T239" t="n">
+        <v>378.11</v>
+      </c>
+      <c r="U239" t="n">
+        <v>385.53</v>
+      </c>
+      <c r="V239" t="n">
+        <v>388.94</v>
+      </c>
+      <c r="W239" t="n">
+        <v>388.0553846153846</v>
+      </c>
+      <c r="X239" t="n">
+        <v>390.6453846153846</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>385.8833333333333</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>385.6533333333333</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>384.72</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>374.77</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>373.8027272727272</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>373.2827272727272</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>385.1227272727273</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>397.01</v>
+      </c>
+      <c r="AH239" t="inlineStr"/>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23547,7 +24098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25915,6 +26466,56 @@
       </c>
       <c r="B236" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -26077,28 +26678,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.000204401044930125</v>
+        <v>-0.02625345921126454</v>
       </c>
       <c r="J2" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L2" t="n">
-        <v>4.513140750006528e-09</v>
+        <v>7.87727943832861e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>16.44093578516902</v>
+        <v>16.12198037219442</v>
       </c>
       <c r="N2" t="n">
-        <v>406.6426685079105</v>
+        <v>396.6829181317422</v>
       </c>
       <c r="O2" t="n">
-        <v>20.16538292490154</v>
+        <v>19.91690031434968</v>
       </c>
       <c r="P2" t="n">
-        <v>364.1330004491712</v>
+        <v>364.4230884038247</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26154,28 +26755,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1926331696452535</v>
+        <v>-0.2039789574135969</v>
       </c>
       <c r="J3" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K3" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003979260278450858</v>
+        <v>0.004711062150881906</v>
       </c>
       <c r="M3" t="n">
-        <v>16.06330229343902</v>
+        <v>15.79770255353785</v>
       </c>
       <c r="N3" t="n">
-        <v>399.8573436550486</v>
+        <v>390.1396222373893</v>
       </c>
       <c r="O3" t="n">
-        <v>19.99643327333774</v>
+        <v>19.75195236520657</v>
       </c>
       <c r="P3" t="n">
-        <v>367.0632359370502</v>
+        <v>367.1889170759445</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26231,28 +26832,28 @@
         <v>0.0771</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1578628115287383</v>
+        <v>-0.1507429059602891</v>
       </c>
       <c r="J4" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K4" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002586756373846422</v>
+        <v>0.002482589972902294</v>
       </c>
       <c r="M4" t="n">
-        <v>16.29104739137272</v>
+        <v>16.0526525040034</v>
       </c>
       <c r="N4" t="n">
-        <v>417.3699776651912</v>
+        <v>408.1855964789085</v>
       </c>
       <c r="O4" t="n">
-        <v>20.42963479030379</v>
+        <v>20.20360355181492</v>
       </c>
       <c r="P4" t="n">
-        <v>362.514649877502</v>
+        <v>362.4345637239914</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26308,28 +26909,28 @@
         <v>0.144</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.007924021046160041</v>
+        <v>-0.02149518438707135</v>
       </c>
       <c r="J5" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K5" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L5" t="n">
-        <v>7.151972434948917e-06</v>
+        <v>5.550045496549583e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>15.68635910485424</v>
+        <v>15.42139740857383</v>
       </c>
       <c r="N5" t="n">
-        <v>386.6592910589279</v>
+        <v>377.3038984338977</v>
       </c>
       <c r="O5" t="n">
-        <v>19.66365406171823</v>
+        <v>19.4243120453183</v>
       </c>
       <c r="P5" t="n">
-        <v>357.3611670492545</v>
+        <v>357.5107279198163</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26385,28 +26986,28 @@
         <v>0.0829</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0526061080967688</v>
+        <v>-0.06276671465657538</v>
       </c>
       <c r="J6" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K6" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003682309770437486</v>
+        <v>0.0005520935356055912</v>
       </c>
       <c r="M6" t="n">
-        <v>14.57912368550331</v>
+        <v>14.33306868337155</v>
       </c>
       <c r="N6" t="n">
-        <v>341.4541015480846</v>
+        <v>333.4781469634916</v>
       </c>
       <c r="O6" t="n">
-        <v>18.47847671070548</v>
+        <v>18.26138403745706</v>
       </c>
       <c r="P6" t="n">
-        <v>360.2964512867783</v>
+        <v>360.4055492591509</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26462,28 +27063,28 @@
         <v>0.089</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09742261751303784</v>
+        <v>-0.1048132452899775</v>
       </c>
       <c r="J7" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K7" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001289976201610865</v>
+        <v>0.001556996230065666</v>
       </c>
       <c r="M7" t="n">
-        <v>14.50192334850259</v>
+        <v>14.40246485411461</v>
       </c>
       <c r="N7" t="n">
-        <v>331.302808511085</v>
+        <v>326.9243006169958</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2017254267579</v>
+        <v>18.08104810615236</v>
       </c>
       <c r="P7" t="n">
-        <v>364.0262049890516</v>
+        <v>364.1056027388744</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26539,28 +27140,28 @@
         <v>0.0785</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2251456956380704</v>
+        <v>-0.2104283456362025</v>
       </c>
       <c r="J8" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K8" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006636905933853354</v>
+        <v>0.006092964066708895</v>
       </c>
       <c r="M8" t="n">
-        <v>14.86254497523372</v>
+        <v>14.60948086234717</v>
       </c>
       <c r="N8" t="n">
-        <v>360.4817112384401</v>
+        <v>352.175236017731</v>
       </c>
       <c r="O8" t="n">
-        <v>18.98635592309488</v>
+        <v>18.76633251377933</v>
       </c>
       <c r="P8" t="n">
-        <v>367.7294608473023</v>
+        <v>367.5728514946865</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26616,28 +27217,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3079566794366695</v>
+        <v>-0.2657658487359166</v>
       </c>
       <c r="J9" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K9" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0120966866617167</v>
+        <v>0.009392649912738693</v>
       </c>
       <c r="M9" t="n">
-        <v>15.41215916338091</v>
+        <v>15.27819728103063</v>
       </c>
       <c r="N9" t="n">
-        <v>363.4016464341915</v>
+        <v>358.9608803288651</v>
       </c>
       <c r="O9" t="n">
-        <v>19.06309645451629</v>
+        <v>18.94626296473437</v>
       </c>
       <c r="P9" t="n">
-        <v>376.039863011771</v>
+        <v>375.5895480986019</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26693,28 +27294,28 @@
         <v>0.1448</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3322087468037265</v>
+        <v>-0.2754414149975714</v>
       </c>
       <c r="J10" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K10" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01511228559953759</v>
+        <v>0.01093161684186705</v>
       </c>
       <c r="M10" t="n">
-        <v>14.81243664003156</v>
+        <v>14.62501473716364</v>
       </c>
       <c r="N10" t="n">
-        <v>329.1487969164339</v>
+        <v>323.4247212441088</v>
       </c>
       <c r="O10" t="n">
-        <v>18.14245840332654</v>
+        <v>17.98401293494054</v>
       </c>
       <c r="P10" t="n">
-        <v>382.1683065381885</v>
+        <v>381.5584522451597</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26770,28 +27371,28 @@
         <v>0.0693</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5819767553206369</v>
+        <v>-0.5025883803696296</v>
       </c>
       <c r="J11" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K11" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03850758022502243</v>
+        <v>0.0299923155134223</v>
       </c>
       <c r="M11" t="n">
-        <v>15.01085531452406</v>
+        <v>14.93657808103726</v>
       </c>
       <c r="N11" t="n">
-        <v>395.4612824419759</v>
+        <v>392.559411660566</v>
       </c>
       <c r="O11" t="n">
-        <v>19.88620834754519</v>
+        <v>19.8131121144702</v>
       </c>
       <c r="P11" t="n">
-        <v>390.6299162198699</v>
+        <v>389.7827488256821</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26847,28 +27448,28 @@
         <v>0.0851</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.8135214175943083</v>
+        <v>-0.7365538468510631</v>
       </c>
       <c r="J12" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K12" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0763716433604047</v>
+        <v>0.0657489642508321</v>
       </c>
       <c r="M12" t="n">
-        <v>14.46805744618239</v>
+        <v>14.38531496324933</v>
       </c>
       <c r="N12" t="n">
-        <v>380.471665501311</v>
+        <v>376.3949646185591</v>
       </c>
       <c r="O12" t="n">
-        <v>19.5056829027161</v>
+        <v>19.40090112903416</v>
       </c>
       <c r="P12" t="n">
-        <v>393.9269203540875</v>
+        <v>393.1112542793117</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26924,28 +27525,28 @@
         <v>0.1336</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.693330322993847</v>
+        <v>-0.6092240908293395</v>
       </c>
       <c r="J13" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K13" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06004473109649278</v>
+        <v>0.04849004951990599</v>
       </c>
       <c r="M13" t="n">
-        <v>14.87838301479565</v>
+        <v>14.89070712476561</v>
       </c>
       <c r="N13" t="n">
-        <v>367.505501430016</v>
+        <v>364.5397985333088</v>
       </c>
       <c r="O13" t="n">
-        <v>19.17043300058755</v>
+        <v>19.09292535294968</v>
       </c>
       <c r="P13" t="n">
-        <v>388.3835887967145</v>
+        <v>387.4978015096605</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -27001,28 +27602,28 @@
         <v>0.1258</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8995106793059237</v>
+        <v>-0.8212437877116212</v>
       </c>
       <c r="J14" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1040862924935685</v>
+        <v>0.09065808262712283</v>
       </c>
       <c r="M14" t="n">
-        <v>14.8804886387068</v>
+        <v>14.81282394305094</v>
       </c>
       <c r="N14" t="n">
-        <v>337.8341344637014</v>
+        <v>335.386359203512</v>
       </c>
       <c r="O14" t="n">
-        <v>18.38026480940091</v>
+        <v>18.31355670544398</v>
       </c>
       <c r="P14" t="n">
-        <v>387.049219463158</v>
+        <v>386.2131432625358</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -27078,28 +27679,28 @@
         <v>0.0611</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7179186489038738</v>
+        <v>-0.6291568084344674</v>
       </c>
       <c r="J15" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K15" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07786685036003504</v>
+        <v>0.06174570998569928</v>
       </c>
       <c r="M15" t="n">
-        <v>13.39531637289063</v>
+        <v>13.47221358685638</v>
       </c>
       <c r="N15" t="n">
-        <v>284.5663692217814</v>
+        <v>287.0577731148014</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8690950919657</v>
+        <v>16.94277937986567</v>
       </c>
       <c r="P15" t="n">
-        <v>380.6512638284035</v>
+        <v>379.6930357551099</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -27155,28 +27756,28 @@
         <v>0.0751</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7139963567797907</v>
+        <v>-0.6328155554426301</v>
       </c>
       <c r="J16" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K16" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08263408625346857</v>
+        <v>0.06751997672285248</v>
       </c>
       <c r="M16" t="n">
-        <v>13.34070547772427</v>
+        <v>13.36288203129305</v>
       </c>
       <c r="N16" t="n">
-        <v>265.7848339414827</v>
+        <v>266.0333592284238</v>
       </c>
       <c r="O16" t="n">
-        <v>16.30290875707408</v>
+        <v>16.31052909100204</v>
       </c>
       <c r="P16" t="n">
-        <v>377.4344065432547</v>
+        <v>376.5596933628304</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -27232,28 +27833,28 @@
         <v>0.1098</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.7447610933363853</v>
+        <v>-0.6421163424594866</v>
       </c>
       <c r="J17" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K17" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07849997245752294</v>
+        <v>0.06010213165873257</v>
       </c>
       <c r="M17" t="n">
-        <v>13.79550771485209</v>
+        <v>13.90723206758839</v>
       </c>
       <c r="N17" t="n">
-        <v>304.4312828728775</v>
+        <v>307.8859868029839</v>
       </c>
       <c r="O17" t="n">
-        <v>17.44795927531004</v>
+        <v>17.546680221711</v>
       </c>
       <c r="P17" t="n">
-        <v>375.8312169624041</v>
+        <v>374.7142770410089</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -27309,28 +27910,28 @@
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6319586524664783</v>
+        <v>-0.539583891976176</v>
       </c>
       <c r="J18" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K18" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05663810448453688</v>
+        <v>0.04250733645514038</v>
       </c>
       <c r="M18" t="n">
-        <v>14.03677444027697</v>
+        <v>14.09502512032492</v>
       </c>
       <c r="N18" t="n">
-        <v>307.4862923299714</v>
+        <v>309.5137506130617</v>
       </c>
       <c r="O18" t="n">
-        <v>17.53528706152173</v>
+        <v>17.59300288788306</v>
       </c>
       <c r="P18" t="n">
-        <v>371.4304989678733</v>
+        <v>370.4176732076517</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -27386,28 +27987,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6161564003520337</v>
+        <v>-0.519809767752244</v>
       </c>
       <c r="J19" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K19" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06199576990895261</v>
+        <v>0.04546968076122504</v>
       </c>
       <c r="M19" t="n">
-        <v>13.65314452304201</v>
+        <v>13.74278955484006</v>
       </c>
       <c r="N19" t="n">
-        <v>272.4053179363795</v>
+        <v>275.4387853196161</v>
       </c>
       <c r="O19" t="n">
-        <v>16.50470593304768</v>
+        <v>16.59634855381195</v>
       </c>
       <c r="P19" t="n">
-        <v>371.875597037902</v>
+        <v>370.8533762454445</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -27463,28 +28064,28 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.4154120027352766</v>
+        <v>-0.3112906591981116</v>
       </c>
       <c r="J20" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K20" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02786438962858284</v>
+        <v>0.0158884107673436</v>
       </c>
       <c r="M20" t="n">
-        <v>13.89499049740053</v>
+        <v>14.05125772782287</v>
       </c>
       <c r="N20" t="n">
-        <v>284.1321569468832</v>
+        <v>289.6694069381481</v>
       </c>
       <c r="O20" t="n">
-        <v>16.85622012631786</v>
+        <v>17.01967705152328</v>
       </c>
       <c r="P20" t="n">
-        <v>371.8623432067971</v>
+        <v>370.7405101999052</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -27540,28 +28141,28 @@
         <v>0.0727</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5900751930619756</v>
+        <v>-0.477281557525477</v>
       </c>
       <c r="J21" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K21" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0479389096564109</v>
+        <v>0.0319937405341294</v>
       </c>
       <c r="M21" t="n">
-        <v>14.26675374316377</v>
+        <v>14.44458620607766</v>
       </c>
       <c r="N21" t="n">
-        <v>317.0416453055898</v>
+        <v>323.0572796606376</v>
       </c>
       <c r="O21" t="n">
-        <v>17.80566329305342</v>
+        <v>17.97379424775519</v>
       </c>
       <c r="P21" t="n">
-        <v>378.8282938553759</v>
+        <v>377.5883153710105</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -27617,28 +28218,28 @@
         <v>0.0864</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.7658010106640568</v>
+        <v>-0.6301985558682505</v>
       </c>
       <c r="J22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K22" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08306744634672325</v>
+        <v>0.05718998266829189</v>
       </c>
       <c r="M22" t="n">
-        <v>13.93380521395914</v>
+        <v>14.15653288239416</v>
       </c>
       <c r="N22" t="n">
-        <v>287.1656124863292</v>
+        <v>297.5905652234507</v>
       </c>
       <c r="O22" t="n">
-        <v>16.94596153914935</v>
+        <v>17.25081346555723</v>
       </c>
       <c r="P22" t="n">
-        <v>383.44410945302</v>
+        <v>381.9387020616878</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -27694,28 +28295,28 @@
         <v>0.0733</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.9037890797650611</v>
+        <v>-0.7594061156313254</v>
       </c>
       <c r="J23" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K23" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L23" t="n">
-        <v>0.111703283036502</v>
+        <v>0.08011044414325386</v>
       </c>
       <c r="M23" t="n">
-        <v>14.02099760456602</v>
+        <v>14.31120976159254</v>
       </c>
       <c r="N23" t="n">
-        <v>302.8681246373964</v>
+        <v>316.1953435336788</v>
       </c>
       <c r="O23" t="n">
-        <v>17.40310675245648</v>
+        <v>17.78188245191377</v>
       </c>
       <c r="P23" t="n">
-        <v>384.4286579019425</v>
+        <v>382.8790448138632</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -27771,28 +28372,28 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.8243895419046051</v>
+        <v>-0.6939730958611297</v>
       </c>
       <c r="J24" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K24" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1014451530821386</v>
+        <v>0.07310995383102992</v>
       </c>
       <c r="M24" t="n">
-        <v>13.43550335172094</v>
+        <v>13.66744259022053</v>
       </c>
       <c r="N24" t="n">
-        <v>272.6802028601183</v>
+        <v>283.0359088729093</v>
       </c>
       <c r="O24" t="n">
-        <v>16.51303130440072</v>
+        <v>16.82367108787227</v>
       </c>
       <c r="P24" t="n">
-        <v>389.4938535285357</v>
+        <v>388.0665836828859</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -27848,28 +28449,28 @@
         <v>0.0584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.7405239861677416</v>
+        <v>-0.6274485728281674</v>
       </c>
       <c r="J25" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K25" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0867240682251369</v>
+        <v>0.06356603847148645</v>
       </c>
       <c r="M25" t="n">
-        <v>12.96545906233785</v>
+        <v>13.11154521629005</v>
       </c>
       <c r="N25" t="n">
-        <v>259.9377699579979</v>
+        <v>267.3044721382908</v>
       </c>
       <c r="O25" t="n">
-        <v>16.12258570943252</v>
+        <v>16.34944867994914</v>
       </c>
       <c r="P25" t="n">
-        <v>397.0978268588235</v>
+        <v>395.8572308124638</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -27925,28 +28526,28 @@
         <v>0.0496</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6624268626924552</v>
+        <v>-0.5878357099401448</v>
       </c>
       <c r="J26" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K26" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06769106253934409</v>
+        <v>0.05526727090695804</v>
       </c>
       <c r="M26" t="n">
-        <v>13.19101792083271</v>
+        <v>13.164304882047</v>
       </c>
       <c r="N26" t="n">
-        <v>264.6147942939954</v>
+        <v>264.9255768917301</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2669847941773</v>
+        <v>16.27653454798441</v>
       </c>
       <c r="P26" t="n">
-        <v>396.1614825514308</v>
+        <v>395.3301584146509</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -28002,28 +28603,28 @@
         <v>0.0501</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5873258390478393</v>
+        <v>-0.5267119041032057</v>
       </c>
       <c r="J27" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K27" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05303056680353646</v>
+        <v>0.04445944236938093</v>
       </c>
       <c r="M27" t="n">
-        <v>13.05186897484146</v>
+        <v>12.97275142465386</v>
       </c>
       <c r="N27" t="n">
-        <v>268.2783080112133</v>
+        <v>266.0539601022111</v>
       </c>
       <c r="O27" t="n">
-        <v>16.37920352188144</v>
+        <v>16.31116059948559</v>
       </c>
       <c r="P27" t="n">
-        <v>392.2630557865438</v>
+        <v>391.5841552460861</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -28079,28 +28680,28 @@
         <v>0.0549</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6525184376547264</v>
+        <v>-0.5609541522575022</v>
       </c>
       <c r="J28" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K28" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06926366244158066</v>
+        <v>0.05293440490645995</v>
       </c>
       <c r="M28" t="n">
-        <v>12.94512248930968</v>
+        <v>12.9989106576474</v>
       </c>
       <c r="N28" t="n">
-        <v>254.4217991091427</v>
+        <v>256.3483469539941</v>
       </c>
       <c r="O28" t="n">
-        <v>15.95060497627418</v>
+        <v>16.01088214165584</v>
       </c>
       <c r="P28" t="n">
-        <v>384.7026256830662</v>
+        <v>383.6875629688529</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -28156,28 +28757,28 @@
         <v>0.0708</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7608132885051938</v>
+        <v>-0.70052458595582</v>
       </c>
       <c r="J29" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K29" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1118272986182325</v>
+        <v>0.09923802117881597</v>
       </c>
       <c r="M29" t="n">
-        <v>11.68740226552654</v>
+        <v>11.65932423549667</v>
       </c>
       <c r="N29" t="n">
-        <v>206.6787535887047</v>
+        <v>205.4680297861977</v>
       </c>
       <c r="O29" t="n">
-        <v>14.37632615060971</v>
+        <v>14.33415605420137</v>
       </c>
       <c r="P29" t="n">
-        <v>379.7098859522998</v>
+        <v>379.0541852984048</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -28233,28 +28834,28 @@
         <v>0.0615</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7801571591001392</v>
+        <v>-0.7321866088566809</v>
       </c>
       <c r="J30" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K30" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1311188783304049</v>
+        <v>0.1213776544495162</v>
       </c>
       <c r="M30" t="n">
-        <v>10.74411096684276</v>
+        <v>10.70310217035807</v>
       </c>
       <c r="N30" t="n">
-        <v>178.4237015294377</v>
+        <v>176.4155382829574</v>
       </c>
       <c r="O30" t="n">
-        <v>13.35753351219594</v>
+        <v>13.28215111655327</v>
       </c>
       <c r="P30" t="n">
-        <v>382.1422150145581</v>
+        <v>381.6178224926838</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -28310,28 +28911,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6588632147838724</v>
+        <v>-0.6106404731769113</v>
       </c>
       <c r="J31" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K31" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1086215893264921</v>
+        <v>0.09773181547340415</v>
       </c>
       <c r="M31" t="n">
-        <v>10.23973869926324</v>
+        <v>10.19989983396322</v>
       </c>
       <c r="N31" t="n">
-        <v>160.8812077372185</v>
+        <v>159.5935242887015</v>
       </c>
       <c r="O31" t="n">
-        <v>12.68389560573637</v>
+        <v>12.63303305974862</v>
       </c>
       <c r="P31" t="n">
-        <v>379.9725959539546</v>
+        <v>379.4510964193915</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -28387,28 +28988,28 @@
         <v>0.0618</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3833726377995636</v>
+        <v>-0.3532094415046133</v>
       </c>
       <c r="J32" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K32" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L32" t="n">
-        <v>0.040186472625514</v>
+        <v>0.03579560459895559</v>
       </c>
       <c r="M32" t="n">
-        <v>10.14510747149587</v>
+        <v>10.01448726424724</v>
       </c>
       <c r="N32" t="n">
-        <v>154.7430582983224</v>
+        <v>152.2439387209242</v>
       </c>
       <c r="O32" t="n">
-        <v>12.43957629094827</v>
+        <v>12.33871706138544</v>
       </c>
       <c r="P32" t="n">
-        <v>387.427287281635</v>
+        <v>387.0969959454013</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -28464,28 +29065,28 @@
         <v>0.0643</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2750983136305766</v>
+        <v>-0.2487105807051024</v>
       </c>
       <c r="J33" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K33" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02464158051664711</v>
+        <v>0.02108617525828183</v>
       </c>
       <c r="M33" t="n">
-        <v>9.390334005228175</v>
+        <v>9.280397700753825</v>
       </c>
       <c r="N33" t="n">
-        <v>132.6836624278216</v>
+        <v>130.6208851352814</v>
       </c>
       <c r="O33" t="n">
-        <v>11.51883945663892</v>
+        <v>11.42894943270297</v>
       </c>
       <c r="P33" t="n">
-        <v>395.3240880042563</v>
+        <v>395.0347819961387</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -28541,28 +29142,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.4151031560498995</v>
+        <v>-0.3824901051251087</v>
       </c>
       <c r="J34" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K34" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04559578763496075</v>
+        <v>0.03977266412251901</v>
       </c>
       <c r="M34" t="n">
-        <v>10.02191992866014</v>
+        <v>10.01923515518356</v>
       </c>
       <c r="N34" t="n">
-        <v>156.2725780986287</v>
+        <v>155.5239045529148</v>
       </c>
       <c r="O34" t="n">
-        <v>12.50090309132219</v>
+        <v>12.47092236175475</v>
       </c>
       <c r="P34" t="n">
-        <v>382.7235143086759</v>
+        <v>382.3600876843898</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -28599,7 +29200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI234"/>
+  <dimension ref="A1:AI239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64145,6 +64746,883 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-36.23352785986966,175.47716681378904</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-36.23425239497804,175.47717094355784</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>-36.23497695561661,175.47717267829282</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-36.23570220184749,175.4771229933495</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>-36.23642900438716,175.47716373101989</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>-36.23715797792724,175.4772005867914</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>-36.237869147428434,175.47742342812865</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>-36.23857272612421,175.47769345044895</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>-36.239284426425044,175.47787911533652</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>-36.23999243002309,175.4780199646706</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>-36.24070317935236,175.47809024405367</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>-36.241405223076846,175.47828181541013</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>-36.242123134012836,175.47842367300947</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>-36.242820805648186,175.47866715029716</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>-36.24354832479922,175.47876068597228</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>-36.24423841573885,175.47904217358038</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>-36.244935178983525,175.4792901173525</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>-36.24565277163548,175.479433412765</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>-36.24631715788469,175.47984390683553</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>-36.24702638336672,175.4799670174942</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>-36.24765103733657,175.48032177235535</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>-36.24829398569888,175.48067150386277</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>-36.24893207752698,175.48108105140165</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>-36.249542306340686,175.4814886269866</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>-36.25010107398108,175.4820130798623</t>
+        </is>
+      </c>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>-36.25071749081014,175.4824920712467</t>
+        </is>
+      </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>-36.25133529796661,175.48296879988578</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>-36.25200392984117,175.48336029651617</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>-36.252571200684535,175.48390026006115</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>-36.253082182884896,175.48452828258974</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>-36.253477876067606,175.4852759185935</t>
+        </is>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>-36.25378956291723,175.48598124775046</t>
+        </is>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>-36.25400092567826,175.48678491766302</t>
+        </is>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-36.23352718315067,175.47721707595886</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-36.23425186646815,175.47721019734053</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>-36.23497673287684,175.47718922166112</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>-36.235701467343524,175.47717754699153</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>-36.23642769730072,175.47720236976912</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>-36.237156704938506,175.47721749882845</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>-36.23787257650906,175.47738784015033</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>-36.238591175576005,175.47750197826005</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>-36.23929391360848,175.47778065652182</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>-36.24000735439181,175.47789782704845</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>-36.240706809208156,175.47806933175193</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>-36.24140890052784,175.4782633454879</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>-36.24212588673663,175.47840984744886</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>-36.24284283931071,175.47855648595333</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>-36.24355334063203,175.4787354937679</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>-36.24424677401625,175.47900019389058</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>-36.24497746733487,175.4790777221216</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>-36.245663367101976,175.47938019649467</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>-36.24635962628566,175.47963060802886</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>-36.24706838018744,175.47979134359508</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>-36.24771592312175,175.48013375008455</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>-36.248342645777186,175.48055377141745</t>
+        </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>-36.24895442138776,175.48102929664003</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>-36.2495382627345,175.48149626105086</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>-36.25015524873946,175.48192518753257</t>
+        </is>
+      </c>
+      <c r="AA236" t="inlineStr">
+        <is>
+          <t>-36.250772156854495,175.4824033817685</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>-36.25137572930402,175.48290320455993</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>-36.25203559709142,175.48331056641737</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>-36.25260278208639,175.4838594263203</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>-36.25305666962558,175.48455638158723</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>-36.25349062665044,175.48526362643642</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>-36.253792363070104,175.4859798076378</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr"/>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-36.23352536997876,175.47735173853175</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-36.23425027038003,175.4773287370844</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-36.234972875453714,175.47747569391302</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-36.23569940711676,175.4773305558683</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-36.23642272875506,175.47734924144672</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>-36.237128415158566,175.47759332872795</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>-36.23785166378398,175.47760487663612</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>-36.23855203797202,175.47790815245588</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>-36.23927716014328,175.4779545248581</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>-36.239967723178516,175.47822215750722</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>-36.24067208002479,175.4782694123639</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>-36.24136973875742,175.4784600338609</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>-36.24209119800135,175.4785840710375</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>-36.242784472369586,175.47884963339342</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>-36.24351066949275,175.47894981018555</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>-36.244223653672655,175.47911631628398</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>-36.24494285672314,175.4792515557009</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>-36.24563616867926,175.4795168016929</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>-36.24633457828999,175.47975641258847</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>-36.246999501869006,175.48007946290815</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>-36.24765192021835,175.48031921399937</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>-36.24827949192332,175.48070657128878</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>-36.248905000155574,175.48114377021844</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>-36.24944530897767,175.48167175120906</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>-36.250048129857696,175.48209897541435</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>-36.25067289462149,175.48256442335543</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>-36.25129928622077,175.4830272248147</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>-36.25195999289169,175.4834292947747</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>-36.252537944883194,175.48394325869327</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>-36.253001266590424,175.48461739956795</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>-36.25340512347985,175.48534605538782</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>-36.25369615978942,175.4860292847194</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>-36.25399638107298,175.4867860490107</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-36.23352556313145,175.47733739379927</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-36.23424969390284,175.47737154927793</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-36.23497505546004,175.4773138016002</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-36.23569999920671,175.47728658403497</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-36.23642452995419,175.4772959980858</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-36.2371515069758,175.47728655498764</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>-36.237867007624416,175.47744563556896</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>-36.2385789197252,175.47762917235258</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>-36.23928397020166,175.4778838500408</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>-36.239991731203844,175.47802568362147</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>-36.24068522149147,175.47819370243027</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>-36.241397653110496,175.47831983536105</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>-36.24212997280813,175.4783893251304</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>-36.24283542959865,175.47859370138795</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>-36.24353802181234,175.47881243300895</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>-36.244232615412265,175.47907130584008</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>-36.244955954015595,175.47918577404093</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>-36.24566292263768,175.4793824288419</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>-36.24637640851371,175.47954631820474</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>-36.24704938813405,175.47987078805141</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>-36.24770273880525,175.48017195492648</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>-36.24832121544753,175.48060562188118</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>-36.24894432199141,175.48105268973563</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>-36.24953490949975,175.4815025917377</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>-36.25015170822442,175.48193093161873</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>-36.250763323718296,175.48241771254885</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>-36.25132176628343,175.4829907535018</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>-36.251987335154865,175.48338635670416</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>-36.25253946653865,175.48394129124517</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>-36.25300862595374,175.4846092943601</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>-36.253428875083024,175.48532315778317</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>-36.25372502077541,175.48601444160707</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>-36.25394554733372,175.48679870370646</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-36.23352553318541,175.47733961778883</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-36.234249852622774,175.4773597620248</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-36.23497579363615,175.47725897924326</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>-36.235700915405076,175.4772185397706</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-36.23642602986138,175.47725166036457</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-36.2371457969116,175.47736241391672</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>-36.23786094182269,175.47750858779233</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>-36.238570328134344,175.47771833703968</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>-36.23928806001096,175.47784140576752</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>-36.239996227099105,175.4779888903691</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>-36.24070491068076,175.47808026953857</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>-36.24139915850248,175.478312274576</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>-36.242117757594656,175.47845067605448</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>-36.24282565619066,175.47864278843633</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>-36.243547936038865,175.47876263853414</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>-36.24425342444704,175.478966791851</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>-36.24495249868517,175.47920312859176</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>-36.24566233479774,175.4793853813011</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>-36.2463579917896,175.47963881737317</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>-36.24703866788785,175.47991563112154</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>-36.247686964696875,175.48021766427323</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>-36.248325597279155,175.48059502009096</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>-36.248961316228126,175.4810133262048</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>-36.24956055187509,175.48145418058905</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>-36.25017212680763,175.4818978047583</t>
+        </is>
+      </c>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>-36.25075678828775,175.48242831555373</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>-36.25134528303687,175.48295260023679</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>-36.25198146947028,175.48339556813255</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>-36.2525468428903,175.48393175387488</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>-36.25303488494036,175.48458037410444</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>-36.25343708065091,175.48531524724572</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>-36.253714679615385,175.4860197600337</t>
+        </is>
+      </c>
+      <c r="AH239" t="inlineStr"/>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -26529,7 +26529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26620,35 +26620,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26701,27 +26706,28 @@
       <c r="P2" t="n">
         <v>364.4230884038247</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.47328205319164 -36.23358009950178, 175.48354601382331 -36.23344180281666)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.4732820531916</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.23358009950178</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.4835460138233</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.23344180281666</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.4784140335075</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.23351095115922</v>
       </c>
     </row>
@@ -26778,27 +26784,28 @@
       <c r="P3" t="n">
         <v>367.1889170759445</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.47328203267463 -36.234304691070015, 175.4835460548568 -36.23416639201441)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.4732820326746</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.23430469107002</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.4835460548568</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.23416639201441</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.4784140437657</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.23423554154221</v>
       </c>
     </row>
@@ -26855,27 +26862,28 @@
       <c r="P4" t="n">
         <v>362.4345637239914</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.47328201215709 -36.23502927592322, 175.4835460958914 -36.234890974497176)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.4732820121571</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.23502927592322</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.4835460958914</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.23489097449718</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.4784140540243</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.23496012521019</v>
       </c>
     </row>
@@ -26932,27 +26940,28 @@
       <c r="P5" t="n">
         <v>357.5107279198163</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.473281991639 -36.235753854061315, 175.48354613692703 -36.23561555026487)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.473281991639</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.23575385406131</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.483546136927</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.23561555026487</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.478414064283</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.23568470216309</v>
       </c>
     </row>
@@ -27009,27 +27018,28 @@
       <c r="P6" t="n">
         <v>360.4055492591509</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.4732846696959 -36.236560163080156, 175.48354133319285 -36.236213091002455)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.4732846696959</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.23656016308016</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.4835413331928</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.23621309100245</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.4784130014444</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.23638662704131</v>
       </c>
     </row>
@@ -27086,27 +27096,28 @@
       <c r="P7" t="n">
         <v>364.1056027388744</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.47334305812436 -36.237448275261855, 175.48356458755802 -36.23667878098429)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.4733430581244</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.23744827526185</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.483564587558</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.23667878098429</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.4784538228412</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.23706352812307</v>
       </c>
     </row>
@@ -27163,27 +27174,28 @@
       <c r="P8" t="n">
         <v>367.5728514946865</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.47344510404776 -36.23825241183359, 175.48363878615334 -36.23727010017827)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.4734451040478</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.23825241183359</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.4836387861533</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.23727010017827</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.4785419451005</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.23776125600593</v>
       </c>
     </row>
@@ -27240,27 +27252,28 @@
       <c r="P9" t="n">
         <v>375.5895480986019</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.47353648066576 -36.23897320364254, 175.48373022213647 -36.23799088739507)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.4735364806658</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.23897320364254</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.4837302221365</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.23799088739507</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.4786333514011</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.23848204551881</v>
       </c>
     </row>
@@ -27317,27 +27330,28 @@
       <c r="P10" t="n">
         <v>381.5584522451597</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.47362785728316 -36.239693988805705, 175.48382165812063 -36.23871166796592)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.4736278572832</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.2396939888057</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.4838216581206</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.23871166796592</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.4787247577019</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.23920282838581</v>
       </c>
     </row>
@@ -27394,27 +27408,28 @@
       <c r="P11" t="n">
         <v>389.7827488256821</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.47373579752502 -36.240515848002964, 175.4838865597989 -36.239275420207235)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.473735797525</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.24051584800296</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.4838865597989</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.23927542020724</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.4788111786619</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.2398956341051</v>
       </c>
     </row>
@@ -27471,27 +27486,28 @@
       <c r="P12" t="n">
         <v>393.1112542793117</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.47392657186367 -36.24142581128366, 175.48396405218773 -36.23968347554271)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.4739265718637</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.24142581128366</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.4839640521877</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.23968347554271</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.4789453120257</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.24055464341319</v>
       </c>
     </row>
@@ -27548,27 +27564,28 @@
       <c r="P13" t="n">
         <v>387.4978015096605</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.47415347075346 -36.2422271177521, 175.4841219486942 -36.24024226546407)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.4741534707535</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.2422271177521</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.4841219486942</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.24024226546407</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.4791377097238</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.24123469160808</v>
       </c>
     </row>
@@ -27625,27 +27642,28 @@
       <c r="P14" t="n">
         <v>386.2131432625358</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.47435361985268 -36.24293342107741, 175.48432215126402 -36.24094856181529)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.4743536198527</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.24293342107741</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.484322151264</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.24094856181529</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.4793378855584</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.24194099144635</v>
       </c>
     </row>
@@ -27702,27 +27720,28 @@
       <c r="P15" t="n">
         <v>379.6930357551099</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.47455376895132 -36.24363971802061, 175.48452235383468 -36.24165485178416)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.4745537689513</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.24363971802061</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.4845223538347</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.24165485178416</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.479538061393</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.24264728490239</v>
       </c>
     </row>
@@ -27779,27 +27798,28 @@
       <c r="P16" t="n">
         <v>376.5596933628304</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.4747539180496 -36.24434600858162, 175.48472255640615 -36.242361135370615)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.4747539180496</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.24434600858162</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.4847225564062</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.24236113537061</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.4797382372279</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.24335357197612</v>
       </c>
     </row>
@@ -27856,27 +27876,28 @@
       <c r="P17" t="n">
         <v>374.7142770410089</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.4749540671475 -36.245052292760434, 175.4849227589785 -36.243067412574554)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.4749540671475</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.24505229276043</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.4849227589785</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.24306741257455</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.479938413063</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.24405985266749</v>
       </c>
     </row>
@@ -27933,27 +27954,28 @@
       <c r="P18" t="n">
         <v>370.4176732076517</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.47515421624493 -36.245758570556966, 175.48512296155164 -36.243773683396)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.4751542162449</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.24575857055697</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.4851229615516</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.243773683396</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.4801385888983</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.24476612697649</v>
       </c>
     </row>
@@ -28010,27 +28032,28 @@
       <c r="P19" t="n">
         <v>370.8533762454445</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.47535436534199 -36.246464841971196, 175.48532316412565 -36.244479947834876)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.475354365342</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.2464648419712</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.4853231641256</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.24447994783488</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.4803387647338</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.24547239490303</v>
       </c>
     </row>
@@ -28087,27 +28110,28 @@
       <c r="P20" t="n">
         <v>370.7405101999052</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.47555451443858 -36.247171107003055, 175.4855233667005 -36.24518620589109)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.4755545144386</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.24717110700306</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.4855233667005</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.24518620589109</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.4805389405695</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.24617865644707</v>
       </c>
     </row>
@@ -28164,27 +28188,28 @@
       <c r="P21" t="n">
         <v>377.5883153710105</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.4758025670952 -36.2480218614294, 175.48564801077845 -36.245668116551926)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.4758025670952</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.2480218614294</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.4856480107784</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.24566811655193</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.4807252889368</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.24684498899066</v>
       </c>
     </row>
@@ -28241,27 +28266,28 @@
       <c r="P22" t="n">
         <v>381.9387020616878</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.4762373996395 -36.249060449830935, 175.485680299765 -36.24580166268612)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.4762373996395</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.24906044983094</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.485680299765</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.24580166268612</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.4809588497022</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.24743105625853</v>
       </c>
     </row>
@@ -28318,27 +28344,28 @@
       <c r="P23" t="n">
         <v>382.8790448138632</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.47675000298406 -36.249914690735196, 175.4858920418101 -36.246136107422195)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.4767500029841</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.2499146907352</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.4858920418101</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.2461361074222</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.4813210223971</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.2480253990787</v>
       </c>
     </row>
@@ -28395,27 +28422,28 @@
       <c r="P24" t="n">
         <v>388.0665836828859</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.47717853312412 -36.25061679819501, 175.48623557822623 -36.24670656299975)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.4771785331241</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.25061679819501</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.4862355782262</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.24670656299975</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.4817070556752</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.24866168059738</v>
       </c>
     </row>
@@ -28472,27 +28500,28 @@
       <c r="P25" t="n">
         <v>395.8572308124638</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (175.4777841489889 -36.251504387343125, 175.4863728183899 -36.246955070038965)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>175.4777841489889</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-36.25150438734313</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>175.4863728183899</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-36.24695507003896</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>175.4820784836894</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-36.24922972869105</v>
       </c>
     </row>
@@ -28549,27 +28578,28 @@
       <c r="P26" t="n">
         <v>395.3301584146509</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (175.478481798479 -36.25227756526365, 175.48664740016733 -36.247244395263216)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>175.478481798479</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-36.25227756526365</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>175.4866474001673</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-36.24724439526322</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>175.4825645993232</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-36.24976098026343</v>
       </c>
     </row>
@@ -28626,27 +28656,28 @@
       <c r="P27" t="n">
         <v>391.5841552460861</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (175.47901433080958 -36.252860981753265, 175.4871799463671 -36.247827800727705)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>175.4790143308096</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-36.25286098175327</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>175.4871799463671</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-36.24782780072771</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>175.4830971385883</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-36.25034439124049</v>
       </c>
     </row>
@@ -28703,27 +28734,28 @@
       <c r="P28" t="n">
         <v>383.6875629688529</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (175.4795468631403 -36.25344439388694, 175.48771249256643 -36.24841120183605)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>175.4795468631403</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-36.25344439388694</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>175.4877124925664</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-36.24841120183605</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>175.4836296778534</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-36.25092779786149</v>
       </c>
     </row>
@@ -28780,27 +28812,28 @@
       <c r="P29" t="n">
         <v>379.0541852984048</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (175.48011810634065 -36.254068404843, 175.48818459110822 -36.2489316893052)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>175.4801181063407</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-36.254068404843</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>175.4881845911082</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-36.2489316893052</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>175.4841513487244</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-36.2515000470741</v>
       </c>
     </row>
@@ -28857,27 +28890,28 @@
       <c r="P30" t="n">
         <v>381.6178224926838</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (175.48092429870928 -36.254872751531174, 175.48834427283774 -36.249133908214674)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>175.4809242987093</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-36.25487275153117</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>175.4883442728377</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-36.24913390821467</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>175.4846342857735</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-36.25200332987292</v>
       </c>
     </row>
@@ -28934,27 +28968,28 @@
       <c r="P31" t="n">
         <v>379.4510964193915</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (175.48181609169094 -36.25554468539459, 175.4886447413255 -36.249344290719705)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>175.4818160916909</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-36.25554468539459</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>175.4886447413255</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-36.2493442907197</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>175.4852304165082</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-36.25244448805715</v>
       </c>
     </row>
@@ -29011,27 +29046,28 @@
       <c r="P32" t="n">
         <v>387.0969959454013</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (175.4826785073366 -36.25617203933082, 175.48899119315 -36.24962380360838)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>175.4826785073366</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-36.25617203933082</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>175.48899119315</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-36.24962380360838</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>175.4858348502433</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-36.2528979214696</v>
       </c>
     </row>
@@ -29088,27 +29124,28 @@
       <c r="P33" t="n">
         <v>395.0347819961387</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (175.48432146000158 -36.25701671559195, 175.48826423080544 -36.24935027615657)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>175.4843214600016</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-36.25701671559195</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>175.4882642308054</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-36.24935027615657</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>175.4862928454035</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-36.25318349587426</v>
       </c>
     </row>
@@ -29165,27 +29202,28 @@
       <c r="P34" t="n">
         <v>382.3600876843898</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (175.48594908578988 -36.25735831869043, 175.48797538150302 -36.249218588666736)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>175.4859490857899</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-36.25735831869043</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>175.487975381503</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-36.24921858866674</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>175.4869622336465</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-36.25328845367858</v>
       </c>
     </row>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI239"/>
+  <dimension ref="A1:AI240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24087,6 +24087,117 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="C240" t="n">
+        <v>361.09</v>
+      </c>
+      <c r="D240" t="n">
+        <v>357.5723076923077</v>
+      </c>
+      <c r="E240" t="n">
+        <v>353.6442105263158</v>
+      </c>
+      <c r="F240" t="n">
+        <v>351.3128571428572</v>
+      </c>
+      <c r="G240" t="n">
+        <v>363.8328571428572</v>
+      </c>
+      <c r="H240" t="n">
+        <v>370.7523076923077</v>
+      </c>
+      <c r="I240" t="n">
+        <v>366.5866666666667</v>
+      </c>
+      <c r="J240" t="n">
+        <v>374.7247826086957</v>
+      </c>
+      <c r="K240" t="n">
+        <v>378.2454545454545</v>
+      </c>
+      <c r="L240" t="n">
+        <v>379.5828571428572</v>
+      </c>
+      <c r="M240" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="N240" t="n">
+        <v>378.1</v>
+      </c>
+      <c r="O240" t="n">
+        <v>381.0154545454546</v>
+      </c>
+      <c r="P240" t="n">
+        <v>377.0623076923077</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>376.0964705882353</v>
+      </c>
+      <c r="R240" t="n">
+        <v>366.7133333333334</v>
+      </c>
+      <c r="S240" t="n">
+        <v>368.7466666666666</v>
+      </c>
+      <c r="T240" t="n">
+        <v>372.9366666666667</v>
+      </c>
+      <c r="U240" t="n">
+        <v>382.1666666666667</v>
+      </c>
+      <c r="V240" t="n">
+        <v>380.1033333333334</v>
+      </c>
+      <c r="W240" t="n">
+        <v>380.7223076923077</v>
+      </c>
+      <c r="X240" t="n">
+        <v>390.9423076923077</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>398.99</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>388.5788888888889</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>382.8688888888889</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>376.49</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>363.0666666666667</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>364.2254545454546</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>365.5754545454545</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>380.5554545454546</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>389.4766666666667</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>378.2054545454546</v>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24098,7 +24209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26516,6 +26627,16 @@
       </c>
       <c r="B241" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -26683,28 +26804,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.02625345921126454</v>
+        <v>-0.01505250095787264</v>
       </c>
       <c r="J2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K2" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L2" t="n">
-        <v>7.87727943832861e-05</v>
+        <v>2.616904254115759e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>16.12198037219442</v>
+        <v>16.0834112020031</v>
       </c>
       <c r="N2" t="n">
-        <v>396.6829181317422</v>
+        <v>394.876311107551</v>
       </c>
       <c r="O2" t="n">
-        <v>19.91690031434968</v>
+        <v>19.8714949389207</v>
       </c>
       <c r="P2" t="n">
-        <v>364.4230884038247</v>
+        <v>364.2992150816948</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26761,28 +26882,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2039789574135969</v>
+        <v>-0.2050771904804256</v>
       </c>
       <c r="J3" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K3" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004711062150881906</v>
+        <v>0.004815796453135235</v>
       </c>
       <c r="M3" t="n">
-        <v>15.79770255353785</v>
+        <v>15.71373670590361</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1396222373893</v>
+        <v>387.940153327732</v>
       </c>
       <c r="O3" t="n">
-        <v>19.75195236520657</v>
+        <v>19.69619641777905</v>
       </c>
       <c r="P3" t="n">
-        <v>367.1889170759445</v>
+        <v>367.2012452299585</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26839,28 +26960,28 @@
         <v>0.0771</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1507429059602891</v>
+        <v>-0.1519674479602411</v>
       </c>
       <c r="J4" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K4" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002482589972902294</v>
+        <v>0.002551095480274213</v>
       </c>
       <c r="M4" t="n">
-        <v>16.0526525040034</v>
+        <v>15.96612661384351</v>
       </c>
       <c r="N4" t="n">
-        <v>408.1855964789085</v>
+        <v>405.8591332541666</v>
       </c>
       <c r="O4" t="n">
-        <v>20.20360355181492</v>
+        <v>20.14594582674555</v>
       </c>
       <c r="P4" t="n">
-        <v>362.4345637239914</v>
+        <v>362.4483419368653</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26917,28 +27038,28 @@
         <v>0.144</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02149518438707135</v>
+        <v>-0.02529563947453744</v>
       </c>
       <c r="J5" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K5" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" t="n">
-        <v>5.550045496549583e-05</v>
+        <v>7.769083239739238e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>15.42139740857383</v>
+        <v>15.35297725828567</v>
       </c>
       <c r="N5" t="n">
-        <v>377.3038984338977</v>
+        <v>375.2792803081809</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4243120453183</v>
+        <v>19.37212637549582</v>
       </c>
       <c r="P5" t="n">
-        <v>357.5107279198163</v>
+        <v>357.5529836309869</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26995,28 +27116,28 @@
         <v>0.0829</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06276671465657538</v>
+        <v>-0.07086943935637198</v>
       </c>
       <c r="J6" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005520935356055912</v>
+        <v>0.0007105981929660388</v>
       </c>
       <c r="M6" t="n">
-        <v>14.33306868337155</v>
+        <v>14.29269338329449</v>
       </c>
       <c r="N6" t="n">
-        <v>333.4781469634916</v>
+        <v>332.0220106595636</v>
       </c>
       <c r="O6" t="n">
-        <v>18.26138403745706</v>
+        <v>18.22147114421785</v>
       </c>
       <c r="P6" t="n">
-        <v>360.4055492591509</v>
+        <v>360.4933704785806</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27073,28 +27194,28 @@
         <v>0.089</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1048132452899775</v>
+        <v>-0.1021826809331319</v>
       </c>
       <c r="J7" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K7" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001556996230065666</v>
+        <v>0.001495785287980334</v>
       </c>
       <c r="M7" t="n">
-        <v>14.40246485411461</v>
+        <v>14.33860640308809</v>
       </c>
       <c r="N7" t="n">
-        <v>326.9243006169958</v>
+        <v>325.2151894166684</v>
       </c>
       <c r="O7" t="n">
-        <v>18.08104810615236</v>
+        <v>18.03372367029806</v>
       </c>
       <c r="P7" t="n">
-        <v>364.1056027388744</v>
+        <v>364.0769461064069</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27151,28 +27272,28 @@
         <v>0.0785</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2104283456362025</v>
+        <v>-0.2014027310361801</v>
       </c>
       <c r="J8" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K8" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006092964066708895</v>
+        <v>0.005635531595339693</v>
       </c>
       <c r="M8" t="n">
-        <v>14.60948086234717</v>
+        <v>14.57761986953962</v>
       </c>
       <c r="N8" t="n">
-        <v>352.175236017731</v>
+        <v>350.6579694090547</v>
       </c>
       <c r="O8" t="n">
-        <v>18.76633251377933</v>
+        <v>18.72586364921668</v>
       </c>
       <c r="P8" t="n">
-        <v>367.5728514946865</v>
+        <v>367.4764430244742</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27229,28 +27350,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2657658487359166</v>
+        <v>-0.2681872692018912</v>
       </c>
       <c r="J9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K9" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009392649912738693</v>
+        <v>0.009661498205988717</v>
       </c>
       <c r="M9" t="n">
-        <v>15.27819728103063</v>
+        <v>15.20921768014318</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9608803288651</v>
+        <v>357.0476373909123</v>
       </c>
       <c r="O9" t="n">
-        <v>18.94626296473437</v>
+        <v>18.89570420468399</v>
       </c>
       <c r="P9" t="n">
-        <v>375.5895480986019</v>
+        <v>375.6155382965337</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27307,28 +27428,28 @@
         <v>0.1448</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2754414149975714</v>
+        <v>-0.2752642991577975</v>
       </c>
       <c r="J10" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K10" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01093161684186705</v>
+        <v>0.0110365222052754</v>
       </c>
       <c r="M10" t="n">
-        <v>14.62501473716364</v>
+        <v>14.54576979623892</v>
       </c>
       <c r="N10" t="n">
-        <v>323.4247212441088</v>
+        <v>321.6575080977325</v>
       </c>
       <c r="O10" t="n">
-        <v>17.98401293494054</v>
+        <v>17.93481274219869</v>
       </c>
       <c r="P10" t="n">
-        <v>381.5584522451597</v>
+        <v>381.5565380383648</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27385,28 +27506,28 @@
         <v>0.0693</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5025883803696296</v>
+        <v>-0.5012643947814094</v>
       </c>
       <c r="J11" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K11" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0299923155134223</v>
+        <v>0.0301458513144478</v>
       </c>
       <c r="M11" t="n">
-        <v>14.93657808103726</v>
+        <v>14.86123611247835</v>
       </c>
       <c r="N11" t="n">
-        <v>392.559411660566</v>
+        <v>390.4339114683586</v>
       </c>
       <c r="O11" t="n">
-        <v>19.8131121144702</v>
+        <v>19.75940058474342</v>
       </c>
       <c r="P11" t="n">
-        <v>389.7827488256821</v>
+        <v>389.7685330260402</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27463,28 +27584,28 @@
         <v>0.0851</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7365538468510631</v>
+        <v>-0.7309238799550102</v>
       </c>
       <c r="J12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K12" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0657489642508321</v>
+        <v>0.06543368624501178</v>
       </c>
       <c r="M12" t="n">
-        <v>14.38531496324933</v>
+        <v>14.329458000035</v>
       </c>
       <c r="N12" t="n">
-        <v>376.3949646185591</v>
+        <v>374.4499539487806</v>
       </c>
       <c r="O12" t="n">
-        <v>19.40090112903416</v>
+        <v>19.35070939135774</v>
       </c>
       <c r="P12" t="n">
-        <v>393.1112542793117</v>
+        <v>393.0512158206495</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27541,28 +27662,28 @@
         <v>0.1336</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6092240908293395</v>
+        <v>-0.6099055125535477</v>
       </c>
       <c r="J13" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K13" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04849004951990599</v>
+        <v>0.04907271414436243</v>
       </c>
       <c r="M13" t="n">
-        <v>14.89070712476561</v>
+        <v>14.80911644283531</v>
       </c>
       <c r="N13" t="n">
-        <v>364.5397985333088</v>
+        <v>362.4589631144565</v>
       </c>
       <c r="O13" t="n">
-        <v>19.09292535294968</v>
+        <v>19.03835505274698</v>
       </c>
       <c r="P13" t="n">
-        <v>387.4978015096605</v>
+        <v>387.5050250027818</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27619,28 +27740,28 @@
         <v>0.1258</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8212437877116212</v>
+        <v>-0.8080295812390224</v>
       </c>
       <c r="J14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K14" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09065808262712283</v>
+        <v>0.0885842730608829</v>
       </c>
       <c r="M14" t="n">
-        <v>14.81282394305094</v>
+        <v>14.78881105757578</v>
       </c>
       <c r="N14" t="n">
-        <v>335.386359203512</v>
+        <v>334.4048910110941</v>
       </c>
       <c r="O14" t="n">
-        <v>18.31355670544398</v>
+        <v>18.28674085262582</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2131432625358</v>
+        <v>386.0710219592483</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27697,28 +27818,28 @@
         <v>0.0611</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6291568084344674</v>
+        <v>-0.6119443756017439</v>
       </c>
       <c r="J15" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K15" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06174570998569928</v>
+        <v>0.05884624244210701</v>
       </c>
       <c r="M15" t="n">
-        <v>13.47221358685638</v>
+        <v>13.48341989411427</v>
       </c>
       <c r="N15" t="n">
-        <v>287.0577731148014</v>
+        <v>287.0966357777717</v>
       </c>
       <c r="O15" t="n">
-        <v>16.94277937986567</v>
+        <v>16.94392622085483</v>
       </c>
       <c r="P15" t="n">
-        <v>379.6930357551099</v>
+        <v>379.5060349761096</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27775,28 +27896,28 @@
         <v>0.0751</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6328155554426301</v>
+        <v>-0.6155764462019074</v>
       </c>
       <c r="J16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K16" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06751997672285248</v>
+        <v>0.06439085503936204</v>
       </c>
       <c r="M16" t="n">
-        <v>13.36288203129305</v>
+        <v>13.37144947586472</v>
       </c>
       <c r="N16" t="n">
-        <v>266.0333592284238</v>
+        <v>266.0562169079786</v>
       </c>
       <c r="O16" t="n">
-        <v>16.31052909100204</v>
+        <v>16.3112297791423</v>
       </c>
       <c r="P16" t="n">
-        <v>376.5596933628304</v>
+        <v>376.3727605498567</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27853,28 +27974,28 @@
         <v>0.1098</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6421163424594866</v>
+        <v>-0.6249837087617653</v>
       </c>
       <c r="J17" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K17" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06010213165873257</v>
+        <v>0.05733411155050216</v>
       </c>
       <c r="M17" t="n">
-        <v>13.90723206758839</v>
+        <v>13.91695422106317</v>
       </c>
       <c r="N17" t="n">
-        <v>307.8859868029839</v>
+        <v>307.8880711368708</v>
       </c>
       <c r="O17" t="n">
-        <v>17.546680221711</v>
+        <v>17.54673961557733</v>
       </c>
       <c r="P17" t="n">
-        <v>374.7142770410089</v>
+        <v>374.5265840743103</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27931,28 +28052,28 @@
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.539583891976176</v>
+        <v>-0.5299830227171488</v>
       </c>
       <c r="J18" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K18" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04250733645514038</v>
+        <v>0.04135958309754539</v>
       </c>
       <c r="M18" t="n">
-        <v>14.09502512032492</v>
+        <v>14.06887458496275</v>
       </c>
       <c r="N18" t="n">
-        <v>309.5137506130617</v>
+        <v>308.4690646802762</v>
       </c>
       <c r="O18" t="n">
-        <v>17.59300288788306</v>
+        <v>17.56328741096826</v>
       </c>
       <c r="P18" t="n">
-        <v>370.4176732076517</v>
+        <v>370.3117058771065</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28009,28 +28130,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.519809767752244</v>
+        <v>-0.5091544347052076</v>
       </c>
       <c r="J19" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K19" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04546968076122504</v>
+        <v>0.04400815623026089</v>
       </c>
       <c r="M19" t="n">
-        <v>13.74278955484006</v>
+        <v>13.72357480853926</v>
       </c>
       <c r="N19" t="n">
-        <v>275.4387853196161</v>
+        <v>274.6901734035117</v>
       </c>
       <c r="O19" t="n">
-        <v>16.59634855381195</v>
+        <v>16.57377969575774</v>
       </c>
       <c r="P19" t="n">
-        <v>370.8533762454445</v>
+        <v>370.7395978784147</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28087,28 +28208,28 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3112906591981116</v>
+        <v>-0.3011994208336395</v>
       </c>
       <c r="J20" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K20" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0158884107673436</v>
+        <v>0.01500238986822933</v>
       </c>
       <c r="M20" t="n">
-        <v>14.05125772782287</v>
+        <v>14.02878824512015</v>
       </c>
       <c r="N20" t="n">
-        <v>289.6694069381481</v>
+        <v>288.6892355406729</v>
       </c>
       <c r="O20" t="n">
-        <v>17.01967705152328</v>
+        <v>16.99085741040378</v>
       </c>
       <c r="P20" t="n">
-        <v>370.7405101999052</v>
+        <v>370.6309920966819</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28165,28 +28286,28 @@
         <v>0.0727</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.477281557525477</v>
+        <v>-0.4605296528903687</v>
       </c>
       <c r="J21" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K21" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0319937405341294</v>
+        <v>0.02999712895493001</v>
       </c>
       <c r="M21" t="n">
-        <v>14.44458620607766</v>
+        <v>14.45290550404414</v>
       </c>
       <c r="N21" t="n">
-        <v>323.0572796606376</v>
+        <v>322.809268417178</v>
       </c>
       <c r="O21" t="n">
-        <v>17.97379424775519</v>
+        <v>17.96689367746072</v>
       </c>
       <c r="P21" t="n">
-        <v>377.5883153710105</v>
+        <v>377.4029621484395</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28243,28 +28364,28 @@
         <v>0.0864</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6301985558682505</v>
+        <v>-0.6156163435241365</v>
       </c>
       <c r="J22" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K22" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05718998266829189</v>
+        <v>0.05504464947086474</v>
       </c>
       <c r="M22" t="n">
-        <v>14.15653288239416</v>
+        <v>14.14618008192777</v>
       </c>
       <c r="N22" t="n">
-        <v>297.5905652234507</v>
+        <v>297.0857606521585</v>
       </c>
       <c r="O22" t="n">
-        <v>17.25081346555723</v>
+        <v>17.23617592890484</v>
       </c>
       <c r="P22" t="n">
-        <v>381.9387020616878</v>
+        <v>381.7758047568079</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28321,28 +28442,28 @@
         <v>0.0733</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.7594061156313254</v>
+        <v>-0.7427330241988963</v>
       </c>
       <c r="J23" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K23" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08011044414325386</v>
+        <v>0.07725064590689534</v>
       </c>
       <c r="M23" t="n">
-        <v>14.31120976159254</v>
+        <v>14.31675403911476</v>
       </c>
       <c r="N23" t="n">
-        <v>316.1953435336788</v>
+        <v>316.0625231131368</v>
       </c>
       <c r="O23" t="n">
-        <v>17.78188245191377</v>
+        <v>17.7781473476045</v>
       </c>
       <c r="P23" t="n">
-        <v>382.8790448138632</v>
+        <v>382.6989644784694</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28399,28 +28520,28 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.6939730958611297</v>
+        <v>-0.6742785115417507</v>
       </c>
       <c r="J24" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07310995383102992</v>
+        <v>0.06944574221006738</v>
       </c>
       <c r="M24" t="n">
-        <v>13.66744259022053</v>
+        <v>13.69155166369841</v>
       </c>
       <c r="N24" t="n">
-        <v>283.0359088729093</v>
+        <v>283.6572585844633</v>
       </c>
       <c r="O24" t="n">
-        <v>16.82367108787227</v>
+        <v>16.84212749579053</v>
       </c>
       <c r="P24" t="n">
-        <v>388.0665836828859</v>
+        <v>387.8497024540398</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28477,28 +28598,28 @@
         <v>0.0584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6274485728281674</v>
+        <v>-0.6088450192196834</v>
       </c>
       <c r="J25" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K25" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06356603847148645</v>
+        <v>0.06023858523798731</v>
       </c>
       <c r="M25" t="n">
-        <v>13.11154521629005</v>
+        <v>13.12360587514857</v>
       </c>
       <c r="N25" t="n">
-        <v>267.3044721382908</v>
+        <v>267.7395027284201</v>
       </c>
       <c r="O25" t="n">
-        <v>16.34944867994914</v>
+        <v>16.36274740770694</v>
       </c>
       <c r="P25" t="n">
-        <v>395.8572308124638</v>
+        <v>395.6518656083202</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28555,28 +28676,28 @@
         <v>0.0496</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5878357099401448</v>
+        <v>-0.5796860017460418</v>
       </c>
       <c r="J26" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K26" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05526727090695804</v>
+        <v>0.05424716134402452</v>
       </c>
       <c r="M26" t="n">
-        <v>13.164304882047</v>
+        <v>13.13253022045014</v>
       </c>
       <c r="N26" t="n">
-        <v>264.9255768917301</v>
+        <v>263.9683586646552</v>
       </c>
       <c r="O26" t="n">
-        <v>16.27653454798441</v>
+        <v>16.24710308530894</v>
       </c>
       <c r="P26" t="n">
-        <v>395.3301584146509</v>
+        <v>395.2387376419485</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28633,28 +28754,28 @@
         <v>0.0501</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5267119041032057</v>
+        <v>-0.5219833419919074</v>
       </c>
       <c r="J27" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K27" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04445944236938093</v>
+        <v>0.04408262796619067</v>
       </c>
       <c r="M27" t="n">
-        <v>12.97275142465386</v>
+        <v>12.92805936687602</v>
       </c>
       <c r="N27" t="n">
-        <v>266.0539601022111</v>
+        <v>264.8544944936145</v>
       </c>
       <c r="O27" t="n">
-        <v>16.31116059948559</v>
+        <v>16.27435081634946</v>
       </c>
       <c r="P27" t="n">
-        <v>391.5841552460861</v>
+        <v>391.5308601933745</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28711,28 +28832,28 @@
         <v>0.0549</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5609541522575022</v>
+        <v>-0.5539110118352761</v>
       </c>
       <c r="J28" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05293440490645995</v>
+        <v>0.05209915077981664</v>
       </c>
       <c r="M28" t="n">
-        <v>12.9989106576474</v>
+        <v>12.9653954965359</v>
       </c>
       <c r="N28" t="n">
-        <v>256.3483469539941</v>
+        <v>255.3313952598509</v>
       </c>
       <c r="O28" t="n">
-        <v>16.01088214165584</v>
+        <v>15.979092441683</v>
       </c>
       <c r="P28" t="n">
-        <v>383.6875629688529</v>
+        <v>383.6090172216851</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28789,28 +28910,28 @@
         <v>0.0708</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.70052458595582</v>
+        <v>-0.6987372816868584</v>
       </c>
       <c r="J29" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K29" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09923802117881597</v>
+        <v>0.09964178279625535</v>
       </c>
       <c r="M29" t="n">
-        <v>11.65932423549667</v>
+        <v>11.61109055352094</v>
       </c>
       <c r="N29" t="n">
-        <v>205.4680297861977</v>
+        <v>204.5001330293859</v>
       </c>
       <c r="O29" t="n">
-        <v>14.33415605420137</v>
+        <v>14.30035429733774</v>
       </c>
       <c r="P29" t="n">
-        <v>379.0541852984048</v>
+        <v>379.0346411700378</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28867,28 +28988,28 @@
         <v>0.0615</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7321866088566809</v>
+        <v>-0.7309590935248835</v>
       </c>
       <c r="J30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K30" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1213776544495162</v>
+        <v>0.1220881841555731</v>
       </c>
       <c r="M30" t="n">
-        <v>10.70310217035807</v>
+        <v>10.65692361817392</v>
       </c>
       <c r="N30" t="n">
-        <v>176.4155382829574</v>
+        <v>175.5659754486697</v>
       </c>
       <c r="O30" t="n">
-        <v>13.28215111655327</v>
+        <v>13.25013114835735</v>
       </c>
       <c r="P30" t="n">
-        <v>381.6178224926838</v>
+        <v>381.6043348006871</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28945,28 +29066,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6106404731769113</v>
+        <v>-0.6090249501895885</v>
       </c>
       <c r="J31" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K31" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="n">
-        <v>0.09773181547340415</v>
+        <v>0.0981186979313321</v>
       </c>
       <c r="M31" t="n">
-        <v>10.19989983396322</v>
+        <v>10.15807955635644</v>
       </c>
       <c r="N31" t="n">
-        <v>159.5935242887015</v>
+        <v>158.8459585551866</v>
       </c>
       <c r="O31" t="n">
-        <v>12.63303305974862</v>
+        <v>12.60341059218443</v>
       </c>
       <c r="P31" t="n">
-        <v>379.4510964193915</v>
+        <v>379.4335350517165</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -29023,28 +29144,28 @@
         <v>0.0618</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3532094415046133</v>
+        <v>-0.3507198939574745</v>
       </c>
       <c r="J32" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03579560459895559</v>
+        <v>0.03564762477267291</v>
       </c>
       <c r="M32" t="n">
-        <v>10.01448726424724</v>
+        <v>9.975556783372939</v>
       </c>
       <c r="N32" t="n">
-        <v>152.2439387209242</v>
+        <v>151.5364455313774</v>
       </c>
       <c r="O32" t="n">
-        <v>12.33871706138544</v>
+        <v>12.31001403457272</v>
       </c>
       <c r="P32" t="n">
-        <v>387.0969959454013</v>
+        <v>387.0696068597078</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -29101,28 +29222,28 @@
         <v>0.0643</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2487105807051024</v>
+        <v>-0.2479420570660817</v>
       </c>
       <c r="J33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K33" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02108617525828183</v>
+        <v>0.02116223472265333</v>
       </c>
       <c r="M33" t="n">
-        <v>9.280397700753825</v>
+        <v>9.238641370022345</v>
       </c>
       <c r="N33" t="n">
-        <v>130.6208851352814</v>
+        <v>129.9925833675581</v>
       </c>
       <c r="O33" t="n">
-        <v>11.42894943270297</v>
+        <v>11.40142900550445</v>
       </c>
       <c r="P33" t="n">
-        <v>395.0347819961387</v>
+        <v>395.0263206436849</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -29179,28 +29300,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3824901051251087</v>
+        <v>-0.3765409726557398</v>
       </c>
       <c r="J34" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K34" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03977266412251901</v>
+        <v>0.03894019457557318</v>
       </c>
       <c r="M34" t="n">
-        <v>10.01923515518356</v>
+        <v>9.996258381338395</v>
       </c>
       <c r="N34" t="n">
-        <v>155.5239045529148</v>
+        <v>154.9013465187298</v>
       </c>
       <c r="O34" t="n">
-        <v>12.47092236175475</v>
+        <v>12.44593694820642</v>
       </c>
       <c r="P34" t="n">
-        <v>382.3600876843898</v>
+        <v>382.2933924629946</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -29238,7 +29359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI239"/>
+  <dimension ref="A1:AI240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65661,6 +65782,183 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-36.23352431734125,175.47742991176074</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>-36.234250692621146,175.4772973785417</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-36.234975803080594,175.47725827781818</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>-36.235700968282714,175.4772146125641</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-36.23642816503933,175.47718854300248</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>-36.23714505501654,175.47737227003933</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>-36.23785793346756,175.47753980903238</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>-36.23858315519211,175.47758521584666</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>-36.23929527671359,175.4777665100277</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>-36.24000760606233,175.47789576742534</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>-36.24070932799159,175.47805482053982</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>-36.241428470541656,175.47816505522667</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>-36.2421203597818,175.4784376065812</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>-36.242820381396555,175.47866928110062</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>-36.24353516813918,175.4788267656393</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>-36.24424352406872,175.47901651685572</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>-36.24496997603661,175.47911534767232</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>-36.24567186926608,175.47933749384688</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>-36.24636911782202,175.4795829362152</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>-36.24704724578638,175.4798797495542</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>-36.24771817151741,175.48012723479323</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>-36.248355627449605,175.48052236235407</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>-36.248960057879174,175.48101624090384</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>-36.2495369313031,175.48149877470598</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>-36.25015741912356,175.48192166632876</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>-36.25077198104056,175.48240366700713</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>-36.25139018854607,175.4828797460259</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>-36.25204664164369,175.48329322208846</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>-36.252606436319056,175.48385470151132</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>-36.2530867060783,175.4845233009735</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>-36.25346951555824,175.4852839785121</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>-36.25377733650694,175.48598753576596</t>
+        </is>
+      </c>
+      <c r="AH240" t="inlineStr">
+        <is>
+          <t>-36.254017907727984,175.4867806900995</t>
+        </is>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI240"/>
+  <dimension ref="A1:AI241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24198,6 +24198,117 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>344.64</v>
+      </c>
+      <c r="C241" t="n">
+        <v>346.38</v>
+      </c>
+      <c r="D241" t="n">
+        <v>347.6484615384616</v>
+      </c>
+      <c r="E241" t="n">
+        <v>349.0921052631579</v>
+      </c>
+      <c r="F241" t="n">
+        <v>343.2457142857143</v>
+      </c>
+      <c r="G241" t="n">
+        <v>350.2957142857143</v>
+      </c>
+      <c r="H241" t="n">
+        <v>335.4584615384616</v>
+      </c>
+      <c r="I241" t="n">
+        <v>348.5966666666667</v>
+      </c>
+      <c r="J241" t="n">
+        <v>371.1569565217391</v>
+      </c>
+      <c r="K241" t="n">
+        <v>361.1263636363637</v>
+      </c>
+      <c r="L241" t="n">
+        <v>376.6257142857143</v>
+      </c>
+      <c r="M241" t="n">
+        <v>360.28</v>
+      </c>
+      <c r="N241" t="n">
+        <v>365.39</v>
+      </c>
+      <c r="O241" t="n">
+        <v>352.6863636363636</v>
+      </c>
+      <c r="P241" t="n">
+        <v>357.5984615384615</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>354.86</v>
+      </c>
+      <c r="R241" t="n">
+        <v>351.6933333333333</v>
+      </c>
+      <c r="S241" t="n">
+        <v>348.6266666666667</v>
+      </c>
+      <c r="T241" t="n">
+        <v>341.9066666666667</v>
+      </c>
+      <c r="U241" t="n">
+        <v>357.2466666666667</v>
+      </c>
+      <c r="V241" t="n">
+        <v>366.0933333333334</v>
+      </c>
+      <c r="W241" t="n">
+        <v>362.2284615384616</v>
+      </c>
+      <c r="X241" t="n">
+        <v>364.0384615384616</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>377.4688888888889</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>376.1488888888889</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>358.85</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>347.8666666666667</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>346.8363636363636</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>344.2763636363636</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>359.2763636363636</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>375.4766666666667</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>359.2863636363636</v>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24209,7 +24320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26637,6 +26748,16 @@
       </c>
       <c r="B242" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -26804,28 +26925,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.01505250095787264</v>
+        <v>-0.03865149700546668</v>
       </c>
       <c r="J2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" t="n">
-        <v>2.616904254115759e-05</v>
+        <v>0.0001736952155179106</v>
       </c>
       <c r="M2" t="n">
-        <v>16.0834112020031</v>
+        <v>16.09819861639834</v>
       </c>
       <c r="N2" t="n">
-        <v>394.876311107551</v>
+        <v>394.7037977610955</v>
       </c>
       <c r="O2" t="n">
-        <v>19.8714949389207</v>
+        <v>19.86715374081288</v>
       </c>
       <c r="P2" t="n">
-        <v>364.2992150816948</v>
+        <v>364.5634627977411</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26882,28 +27003,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2050771904804256</v>
+        <v>-0.223861504198288</v>
       </c>
       <c r="J3" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004815796453135235</v>
+        <v>0.005780825349654406</v>
       </c>
       <c r="M3" t="n">
-        <v>15.71373670590361</v>
+        <v>15.7126464651369</v>
       </c>
       <c r="N3" t="n">
-        <v>387.940153327732</v>
+        <v>387.0968744140893</v>
       </c>
       <c r="O3" t="n">
-        <v>19.69619641777905</v>
+        <v>19.6747776204482</v>
       </c>
       <c r="P3" t="n">
-        <v>367.2012452299585</v>
+        <v>367.4147175336174</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26960,28 +27081,28 @@
         <v>0.0771</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1519674479602411</v>
+        <v>-0.1650222700332287</v>
       </c>
       <c r="J4" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002551095480274213</v>
+        <v>0.00303669588532729</v>
       </c>
       <c r="M4" t="n">
-        <v>15.96612661384351</v>
+        <v>15.92878098177437</v>
       </c>
       <c r="N4" t="n">
-        <v>405.8591332541666</v>
+        <v>404.2164912706592</v>
       </c>
       <c r="O4" t="n">
-        <v>20.14594582674555</v>
+        <v>20.10513594260579</v>
       </c>
       <c r="P4" t="n">
-        <v>362.4483419368653</v>
+        <v>362.5971052123878</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27038,28 +27159,28 @@
         <v>0.144</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02529563947453744</v>
+        <v>-0.03435115445117606</v>
       </c>
       <c r="J5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L5" t="n">
-        <v>7.769083239739238e-05</v>
+        <v>0.0001447677606334352</v>
       </c>
       <c r="M5" t="n">
-        <v>15.35297725828567</v>
+        <v>15.30792031149226</v>
       </c>
       <c r="N5" t="n">
-        <v>375.2792803081809</v>
+        <v>373.5469808259055</v>
       </c>
       <c r="O5" t="n">
-        <v>19.37212637549582</v>
+        <v>19.32736352495874</v>
       </c>
       <c r="P5" t="n">
-        <v>357.5529836309869</v>
+        <v>357.6549483404484</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27116,28 +27237,28 @@
         <v>0.0829</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07086943935637198</v>
+        <v>-0.08775259730141938</v>
       </c>
       <c r="J6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K6" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007105981929660388</v>
+        <v>0.001097056358872806</v>
       </c>
       <c r="M6" t="n">
-        <v>14.29269338329449</v>
+        <v>14.28777672200898</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0220106595636</v>
+        <v>331.5125686167732</v>
       </c>
       <c r="O6" t="n">
-        <v>18.22147114421785</v>
+        <v>18.20748660899612</v>
       </c>
       <c r="P6" t="n">
-        <v>360.4933704785806</v>
+        <v>360.6786909997141</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27194,28 +27315,28 @@
         <v>0.089</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1021826809331319</v>
+        <v>-0.1146299748726024</v>
       </c>
       <c r="J7" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001495785287980334</v>
+        <v>0.00189894728121498</v>
       </c>
       <c r="M7" t="n">
-        <v>14.33860640308809</v>
+        <v>14.32053231711074</v>
       </c>
       <c r="N7" t="n">
-        <v>325.2151894166684</v>
+        <v>324.1424751564019</v>
       </c>
       <c r="O7" t="n">
-        <v>18.03372367029806</v>
+        <v>18.00395720824735</v>
       </c>
       <c r="P7" t="n">
-        <v>364.0769461064069</v>
+        <v>364.2142637940487</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27272,28 +27393,28 @@
         <v>0.0785</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2014027310361801</v>
+        <v>-0.2302168032069821</v>
       </c>
       <c r="J8" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K8" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005635531595339693</v>
+        <v>0.007349168569303344</v>
       </c>
       <c r="M8" t="n">
-        <v>14.57761986953962</v>
+        <v>14.64073526218003</v>
       </c>
       <c r="N8" t="n">
-        <v>350.6579694090547</v>
+        <v>352.5863211451102</v>
       </c>
       <c r="O8" t="n">
-        <v>18.72586364921668</v>
+        <v>18.7772820489311</v>
       </c>
       <c r="P8" t="n">
-        <v>367.4764430244742</v>
+        <v>367.7884605725573</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27350,28 +27471,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2681872692018912</v>
+        <v>-0.2900771345803699</v>
       </c>
       <c r="J9" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K9" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009661498205988717</v>
+        <v>0.01133820124466089</v>
       </c>
       <c r="M9" t="n">
-        <v>15.20921768014318</v>
+        <v>15.24643749337772</v>
       </c>
       <c r="N9" t="n">
-        <v>357.0476373909123</v>
+        <v>357.2725316400104</v>
       </c>
       <c r="O9" t="n">
-        <v>18.89570420468399</v>
+        <v>18.90165420379947</v>
       </c>
       <c r="P9" t="n">
-        <v>375.6155382965337</v>
+        <v>375.8536632633154</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27428,28 +27549,28 @@
         <v>0.1448</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2752642991577975</v>
+        <v>-0.2790347928294414</v>
       </c>
       <c r="J10" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0110365222052754</v>
+        <v>0.01146324256737563</v>
       </c>
       <c r="M10" t="n">
-        <v>14.54576979623892</v>
+        <v>14.48859804843452</v>
       </c>
       <c r="N10" t="n">
-        <v>321.6575080977325</v>
+        <v>319.9687570798262</v>
       </c>
       <c r="O10" t="n">
-        <v>17.93481274219869</v>
+        <v>17.88767053251558</v>
       </c>
       <c r="P10" t="n">
-        <v>381.5565380383648</v>
+        <v>381.5978147312566</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27506,28 +27627,28 @@
         <v>0.0693</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5012643947814094</v>
+        <v>-0.5185877593870859</v>
       </c>
       <c r="J11" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K11" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0301458513144478</v>
+        <v>0.03243342497234769</v>
       </c>
       <c r="M11" t="n">
-        <v>14.86123611247835</v>
+        <v>14.87584581675196</v>
       </c>
       <c r="N11" t="n">
-        <v>390.4339114683586</v>
+        <v>389.6466942254393</v>
       </c>
       <c r="O11" t="n">
-        <v>19.75940058474342</v>
+        <v>19.73947046466645</v>
       </c>
       <c r="P11" t="n">
-        <v>389.7685330260402</v>
+        <v>389.9570283836525</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27584,28 +27705,28 @@
         <v>0.0851</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7309238799550102</v>
+        <v>-0.7283458055031994</v>
       </c>
       <c r="J12" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K12" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06543368624501178</v>
+        <v>0.0656688203090442</v>
       </c>
       <c r="M12" t="n">
-        <v>14.329458000035</v>
+        <v>14.26089200814825</v>
       </c>
       <c r="N12" t="n">
-        <v>374.4499539487806</v>
+        <v>372.4108591828045</v>
       </c>
       <c r="O12" t="n">
-        <v>19.35070939135774</v>
+        <v>19.29794961084738</v>
       </c>
       <c r="P12" t="n">
-        <v>393.0512158206495</v>
+        <v>393.0233449727172</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27662,28 +27783,28 @@
         <v>0.1336</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6099055125535477</v>
+        <v>-0.6225355986752398</v>
       </c>
       <c r="J13" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K13" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04907271414436243</v>
+        <v>0.05144165183068294</v>
       </c>
       <c r="M13" t="n">
-        <v>14.80911644283531</v>
+        <v>14.78746287723379</v>
       </c>
       <c r="N13" t="n">
-        <v>362.4589631144565</v>
+        <v>361.1475796357302</v>
       </c>
       <c r="O13" t="n">
-        <v>19.03835505274698</v>
+        <v>19.00388327778641</v>
       </c>
       <c r="P13" t="n">
-        <v>387.5050250027818</v>
+        <v>387.6408647146797</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27740,28 +27861,28 @@
         <v>0.1258</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8080295812390224</v>
+        <v>-0.8079651691915035</v>
       </c>
       <c r="J14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K14" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0885842730608829</v>
+        <v>0.08938908137578239</v>
       </c>
       <c r="M14" t="n">
-        <v>14.78881105757578</v>
+        <v>14.70692617844788</v>
       </c>
       <c r="N14" t="n">
-        <v>334.4048910110941</v>
+        <v>332.5471065252015</v>
       </c>
       <c r="O14" t="n">
-        <v>18.28674085262582</v>
+        <v>18.23587416399887</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0710219592483</v>
+        <v>386.0703188356596</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27818,28 +27939,28 @@
         <v>0.0611</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6119443756017439</v>
+        <v>-0.6231677715810954</v>
       </c>
       <c r="J15" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K15" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05884624244210701</v>
+        <v>0.06133611789201332</v>
       </c>
       <c r="M15" t="n">
-        <v>13.48341989411427</v>
+        <v>13.47592310301581</v>
       </c>
       <c r="N15" t="n">
-        <v>287.0966357777717</v>
+        <v>286.2651281148825</v>
       </c>
       <c r="O15" t="n">
-        <v>16.94392622085483</v>
+        <v>16.91937138651677</v>
       </c>
       <c r="P15" t="n">
-        <v>379.5060349761096</v>
+        <v>379.6296355285418</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27896,28 +28017,28 @@
         <v>0.0751</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6155764462019074</v>
+        <v>-0.6187137592588433</v>
       </c>
       <c r="J16" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K16" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06439085503936204</v>
+        <v>0.06562285099618703</v>
       </c>
       <c r="M16" t="n">
-        <v>13.37144947586472</v>
+        <v>13.31743354321156</v>
       </c>
       <c r="N16" t="n">
-        <v>266.0562169079786</v>
+        <v>264.6872917595318</v>
       </c>
       <c r="O16" t="n">
-        <v>16.3112297791423</v>
+        <v>16.26921300369295</v>
       </c>
       <c r="P16" t="n">
-        <v>376.3727605498567</v>
+        <v>376.4072539860205</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27974,28 +28095,28 @@
         <v>0.1098</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6249837087617653</v>
+        <v>-0.6285504971412222</v>
       </c>
       <c r="J17" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K17" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05733411155050216</v>
+        <v>0.05845739308287323</v>
       </c>
       <c r="M17" t="n">
-        <v>13.91695422106317</v>
+        <v>13.86713342833859</v>
       </c>
       <c r="N17" t="n">
-        <v>307.8880711368708</v>
+        <v>306.4133277561984</v>
       </c>
       <c r="O17" t="n">
-        <v>17.54673961557733</v>
+        <v>17.50466588530608</v>
       </c>
       <c r="P17" t="n">
-        <v>374.5265840743103</v>
+        <v>374.5662120756106</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28052,28 +28173,28 @@
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5299830227171488</v>
+        <v>-0.5348788026597127</v>
       </c>
       <c r="J18" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K18" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04135958309754539</v>
+        <v>0.04245537315377179</v>
       </c>
       <c r="M18" t="n">
-        <v>14.06887458496275</v>
+        <v>14.02683176122186</v>
       </c>
       <c r="N18" t="n">
-        <v>308.4690646802762</v>
+        <v>307.0715886142527</v>
       </c>
       <c r="O18" t="n">
-        <v>17.56328741096826</v>
+        <v>17.52345823786654</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3117058771065</v>
+        <v>370.3664995932846</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28130,28 +28251,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5091544347052076</v>
+        <v>-0.5179705601583851</v>
       </c>
       <c r="J19" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K19" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04400815623026089</v>
+        <v>0.04583776584910848</v>
       </c>
       <c r="M19" t="n">
-        <v>13.72357480853926</v>
+        <v>13.70551914579022</v>
       </c>
       <c r="N19" t="n">
-        <v>274.6901734035117</v>
+        <v>273.7524924298252</v>
       </c>
       <c r="O19" t="n">
-        <v>16.57377969575774</v>
+        <v>16.54546742856862</v>
       </c>
       <c r="P19" t="n">
-        <v>370.7395978784147</v>
+        <v>370.8350128543303</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28208,28 +28329,28 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3011994208336395</v>
+        <v>-0.322494531058474</v>
       </c>
       <c r="J20" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K20" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01500238986822933</v>
+        <v>0.0171957989593392</v>
       </c>
       <c r="M20" t="n">
-        <v>14.02878824512015</v>
+        <v>14.06716403260275</v>
       </c>
       <c r="N20" t="n">
-        <v>288.6892355406729</v>
+        <v>289.4389306216063</v>
       </c>
       <c r="O20" t="n">
-        <v>16.99085741040378</v>
+        <v>17.01290482609029</v>
       </c>
       <c r="P20" t="n">
-        <v>370.6309920966819</v>
+        <v>370.8653674333084</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28286,28 +28407,28 @@
         <v>0.0727</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4605296528903687</v>
+        <v>-0.469024415798162</v>
       </c>
       <c r="J21" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K21" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02999712895493001</v>
+        <v>0.03134043248341312</v>
       </c>
       <c r="M21" t="n">
-        <v>14.45290550404414</v>
+        <v>14.42262616257664</v>
       </c>
       <c r="N21" t="n">
-        <v>322.809268417178</v>
+        <v>321.5114659696519</v>
       </c>
       <c r="O21" t="n">
-        <v>17.96689367746072</v>
+        <v>17.93074080928203</v>
       </c>
       <c r="P21" t="n">
-        <v>377.4029621484395</v>
+        <v>377.4982552391248</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28364,28 +28485,28 @@
         <v>0.0864</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6156163435241365</v>
+        <v>-0.6154904425294681</v>
       </c>
       <c r="J22" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K22" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05504464947086474</v>
+        <v>0.05554975380519622</v>
       </c>
       <c r="M22" t="n">
-        <v>14.14618008192777</v>
+        <v>14.07560169874243</v>
       </c>
       <c r="N22" t="n">
-        <v>297.0857606521585</v>
+        <v>295.5929392001571</v>
       </c>
       <c r="O22" t="n">
-        <v>17.23617592890484</v>
+        <v>17.19281649992686</v>
       </c>
       <c r="P22" t="n">
-        <v>381.7758047568079</v>
+        <v>381.7743799936039</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28442,28 +28563,28 @@
         <v>0.0733</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.7427330241988963</v>
+        <v>-0.7441209335348592</v>
       </c>
       <c r="J23" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K23" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07725064590689534</v>
+        <v>0.07821815661375275</v>
       </c>
       <c r="M23" t="n">
-        <v>14.31675403911476</v>
+        <v>14.25464127002406</v>
       </c>
       <c r="N23" t="n">
-        <v>316.0625231131368</v>
+        <v>314.5376752413147</v>
       </c>
       <c r="O23" t="n">
-        <v>17.7781473476045</v>
+        <v>17.73521004221023</v>
       </c>
       <c r="P23" t="n">
-        <v>382.6989644784694</v>
+        <v>382.7141555689723</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28520,28 +28641,28 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.6742785115417507</v>
+        <v>-0.6806250507953844</v>
       </c>
       <c r="J24" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06944574221006738</v>
+        <v>0.07124928867155345</v>
       </c>
       <c r="M24" t="n">
-        <v>13.69155166369841</v>
+        <v>13.65984386216201</v>
       </c>
       <c r="N24" t="n">
-        <v>283.6572585844633</v>
+        <v>282.5158702504693</v>
       </c>
       <c r="O24" t="n">
-        <v>16.84212749579053</v>
+        <v>16.80820841881934</v>
       </c>
       <c r="P24" t="n">
-        <v>387.8497024540398</v>
+        <v>387.9205081782357</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28598,28 +28719,28 @@
         <v>0.0584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6088450192196834</v>
+        <v>-0.6229398293836867</v>
       </c>
       <c r="J25" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K25" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06023858523798731</v>
+        <v>0.06324478633465336</v>
       </c>
       <c r="M25" t="n">
-        <v>13.12360587514857</v>
+        <v>13.14007341860089</v>
       </c>
       <c r="N25" t="n">
-        <v>267.7395027284201</v>
+        <v>267.4139937285568</v>
       </c>
       <c r="O25" t="n">
-        <v>16.36274740770694</v>
+        <v>16.35279773398292</v>
       </c>
       <c r="P25" t="n">
-        <v>395.6518656083202</v>
+        <v>395.8094809394033</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28676,28 +28797,28 @@
         <v>0.0496</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5796860017460418</v>
+        <v>-0.5826124203300411</v>
       </c>
       <c r="J26" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K26" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05424716134402452</v>
+        <v>0.05526809465489779</v>
       </c>
       <c r="M26" t="n">
-        <v>13.13253022045014</v>
+        <v>13.08606345434822</v>
       </c>
       <c r="N26" t="n">
-        <v>263.9683586646552</v>
+        <v>262.7447149200781</v>
       </c>
       <c r="O26" t="n">
-        <v>16.24710308530894</v>
+        <v>16.20940205313194</v>
       </c>
       <c r="P26" t="n">
-        <v>395.2387376419485</v>
+        <v>395.271982253923</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28754,28 +28875,28 @@
         <v>0.0501</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5219833419919074</v>
+        <v>-0.5240282833093957</v>
       </c>
       <c r="J27" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K27" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04408262796619067</v>
+        <v>0.04483331356918252</v>
       </c>
       <c r="M27" t="n">
-        <v>12.92805936687602</v>
+        <v>12.87618362136459</v>
       </c>
       <c r="N27" t="n">
-        <v>264.8544944936145</v>
+        <v>263.5814138136903</v>
       </c>
       <c r="O27" t="n">
-        <v>16.27435081634946</v>
+        <v>16.23519059985716</v>
       </c>
       <c r="P27" t="n">
-        <v>391.5308601933745</v>
+        <v>391.5542020310853</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28832,28 +28953,28 @@
         <v>0.0549</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5539110118352761</v>
+        <v>-0.5646151850652112</v>
       </c>
       <c r="J28" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K28" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05209915077981664</v>
+        <v>0.05441799295976368</v>
       </c>
       <c r="M28" t="n">
-        <v>12.9653954965359</v>
+        <v>12.95926714117073</v>
       </c>
       <c r="N28" t="n">
-        <v>255.3313952598509</v>
+        <v>254.6198837539582</v>
       </c>
       <c r="O28" t="n">
-        <v>15.979092441683</v>
+        <v>15.95681308262894</v>
       </c>
       <c r="P28" t="n">
-        <v>383.6090172216851</v>
+        <v>383.7299446241533</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28910,28 +29031,28 @@
         <v>0.0708</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6987372816868584</v>
+        <v>-0.7120969058882044</v>
       </c>
       <c r="J29" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K29" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09964178279625535</v>
+        <v>0.1036524170231454</v>
       </c>
       <c r="M29" t="n">
-        <v>11.61109055352094</v>
+        <v>11.6259031566004</v>
       </c>
       <c r="N29" t="n">
-        <v>204.5001330293859</v>
+        <v>204.3476928872872</v>
       </c>
       <c r="O29" t="n">
-        <v>14.30035429733774</v>
+        <v>14.2950233608514</v>
       </c>
       <c r="P29" t="n">
-        <v>379.0346411700378</v>
+        <v>379.1825700004217</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28988,28 +29109,28 @@
         <v>0.0615</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7309590935248835</v>
+        <v>-0.747633826609338</v>
       </c>
       <c r="J30" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K30" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1220881841555731</v>
+        <v>0.127392691728081</v>
       </c>
       <c r="M30" t="n">
-        <v>10.65692361817392</v>
+        <v>10.68196357204384</v>
       </c>
       <c r="N30" t="n">
-        <v>175.5659754486697</v>
+        <v>175.9364384676265</v>
       </c>
       <c r="O30" t="n">
-        <v>13.25013114835735</v>
+        <v>13.26410337970971</v>
       </c>
       <c r="P30" t="n">
-        <v>381.6043348006871</v>
+        <v>381.7898054409616</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -29066,28 +29187,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6090249501895885</v>
+        <v>-0.6286994701388002</v>
       </c>
       <c r="J31" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K31" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0981186979313321</v>
+        <v>0.1037927926501596</v>
       </c>
       <c r="M31" t="n">
-        <v>10.15807955635644</v>
+        <v>10.21305465202949</v>
       </c>
       <c r="N31" t="n">
-        <v>158.8459585551866</v>
+        <v>159.8729092902706</v>
       </c>
       <c r="O31" t="n">
-        <v>12.60341059218443</v>
+        <v>12.64408594127193</v>
       </c>
       <c r="P31" t="n">
-        <v>379.4335350517165</v>
+        <v>379.650087104251</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -29144,28 +29265,28 @@
         <v>0.0618</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3507198939574745</v>
+        <v>-0.3702789443459719</v>
       </c>
       <c r="J32" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K32" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03564762477267291</v>
+        <v>0.03954999673972648</v>
       </c>
       <c r="M32" t="n">
-        <v>9.975556783372939</v>
+        <v>10.03557373268792</v>
       </c>
       <c r="N32" t="n">
-        <v>151.5364455313774</v>
+        <v>152.4796900920715</v>
       </c>
       <c r="O32" t="n">
-        <v>12.31001403457272</v>
+        <v>12.34826668371199</v>
       </c>
       <c r="P32" t="n">
-        <v>387.0696068597078</v>
+        <v>387.287418474838</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -29222,28 +29343,28 @@
         <v>0.0643</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2479420570660817</v>
+        <v>-0.2615442849174959</v>
       </c>
       <c r="J33" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K33" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02116223472265333</v>
+        <v>0.02358223912393842</v>
       </c>
       <c r="M33" t="n">
-        <v>9.238641370022345</v>
+        <v>9.266644733599266</v>
       </c>
       <c r="N33" t="n">
-        <v>129.9925833675581</v>
+        <v>130.1908805040805</v>
       </c>
       <c r="O33" t="n">
-        <v>11.40142900550445</v>
+        <v>11.41012184440116</v>
       </c>
       <c r="P33" t="n">
-        <v>395.0263206436849</v>
+        <v>395.1779353140108</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -29300,28 +29421,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3765409726557398</v>
+        <v>-0.3910267717118927</v>
       </c>
       <c r="J34" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K34" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03894019457557318</v>
+        <v>0.04207118324400283</v>
       </c>
       <c r="M34" t="n">
-        <v>9.996258381338395</v>
+        <v>10.01398608630828</v>
       </c>
       <c r="N34" t="n">
-        <v>154.9013465187298</v>
+        <v>155.0019290258851</v>
       </c>
       <c r="O34" t="n">
-        <v>12.44593694820642</v>
+        <v>12.44997706929154</v>
       </c>
       <c r="P34" t="n">
-        <v>382.2933924629946</v>
+        <v>382.4577440307247</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -29359,7 +29480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI240"/>
+  <dimension ref="A1:AI241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40755,7 +40876,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>-36.25357132651548,175.48518582788225</t>
+          <t>-36.253571326515484,175.48518582788225</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -51002,7 +51123,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>-36.24707744262633,175.47975343499033</t>
+          <t>-36.24707744262632,175.47975343499033</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -51659,7 +51780,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>-36.24213620943696,175.47835800158717</t>
+          <t>-36.242136209436964,175.47835800158717</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -55770,7 +55891,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>-36.24707744262633,175.47975343499033</t>
+          <t>-36.24707744262632,175.47975343499033</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
@@ -57564,7 +57685,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-36.24071403924457,175.47802767804498</t>
+          <t>-36.240714039244565,175.47802767804498</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -58474,7 +58595,7 @@
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>-36.2491288520746,175.4806252626155</t>
+          <t>-36.249128852074605,175.4806252626155</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -63342,7 +63463,7 @@
       </c>
       <c r="AD224" t="inlineStr">
         <is>
-          <t>-36.25263225918121,175.4838213133363</t>
+          <t>-36.25263225918122,175.4838213133363</t>
         </is>
       </c>
       <c r="AE224" t="inlineStr">
@@ -65959,6 +66080,183 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-36.23352856501233,175.47711443882665</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-36.23425289502936,175.47713380258378</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-36.234977288915815,175.47714792311766</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>-36.235701649848934,175.4771639919832</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-36.23643119751492,175.47709889919446</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>-36.237156339355714,175.4772223556996</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>-36.23789549189606,175.47715001483036</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>-36.23860229972874,175.4773865279513</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>-36.23929907359576,175.47772710536367</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>-36.2400306117764,175.47770749181427</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>-36.24071491029985,175.47802265971268</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>-36.24145238456116,175.47804494661497</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>-36.24214769341525,175.47830032304853</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>-36.24288130511415,175.47836328960918</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>-36.24357702680673,175.47861652868684</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>-36.24428919518283,175.47878713108852</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>-36.24500227814535,175.47895310768175</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>-36.2457151397453,175.47912016385726</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>-36.246435851974084,175.47924775692184</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>-36.24711080182211,175.47961389141489</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>-36.2477676479071,175.47998386417322</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>-36.24843136264029,175.48033912100834</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>-36.249074075104645,175.48075214310606</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>-36.249700598367994,175.48118978066805</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>-36.25021803827587,175.48182331843725</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>-36.250808647329414,175.4823441799721</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>-36.25148643788161,175.48272359163647</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>-36.2521312855293,175.4831602973196</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>-36.25271463773102,175.48371480015658</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>-36.253229913951564,175.48436557866955</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>-36.25362063088267,175.4851382959997</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>-36.25389377849842,175.48592764982826</t>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t>-36.2541850062731,175.486739091987</t>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI241"/>
+  <dimension ref="A1:AI242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24309,6 +24309,85 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>362.0966666666667</v>
+      </c>
+      <c r="S242" t="n">
+        <v>360.7033333333333</v>
+      </c>
+      <c r="T242" t="n">
+        <v>368.0133333333333</v>
+      </c>
+      <c r="U242" t="n">
+        <v>362.9433333333333</v>
+      </c>
+      <c r="V242" t="n">
+        <v>368.4766666666667</v>
+      </c>
+      <c r="W242" t="n">
+        <v>370.9130769230769</v>
+      </c>
+      <c r="X242" t="n">
+        <v>371.0130769230769</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>370.17</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>377.2911111111111</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>385.8011111111111</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>366.56</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>353.5433333333333</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>351.7754545454546</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>348.7154545454546</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>361.2954545454546</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>373.2433333333333</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>358.9454545454545</v>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24320,7 +24399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26758,6 +26837,16 @@
       </c>
       <c r="B243" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +27017,7 @@
         <v>-0.03865149700546668</v>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K2" t="n">
         <v>174</v>
@@ -27006,7 +27095,7 @@
         <v>-0.223861504198288</v>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K3" t="n">
         <v>178</v>
@@ -27084,7 +27173,7 @@
         <v>-0.1650222700332287</v>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K4" t="n">
         <v>176</v>
@@ -27162,7 +27251,7 @@
         <v>-0.03435115445117606</v>
       </c>
       <c r="J5" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" t="n">
         <v>182</v>
@@ -27240,7 +27329,7 @@
         <v>-0.08775259730141938</v>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K6" t="n">
         <v>192</v>
@@ -27318,7 +27407,7 @@
         <v>-0.1146299748726024</v>
       </c>
       <c r="J7" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K7" t="n">
         <v>189</v>
@@ -27396,7 +27485,7 @@
         <v>-0.2302168032069821</v>
       </c>
       <c r="J8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K8" t="n">
         <v>186</v>
@@ -27474,7 +27563,7 @@
         <v>-0.2900771345803699</v>
       </c>
       <c r="J9" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K9" t="n">
         <v>186</v>
@@ -27552,7 +27641,7 @@
         <v>-0.2790347928294414</v>
       </c>
       <c r="J10" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K10" t="n">
         <v>184</v>
@@ -27630,7 +27719,7 @@
         <v>-0.5185877593870859</v>
       </c>
       <c r="J11" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K11" t="n">
         <v>185</v>
@@ -27708,7 +27797,7 @@
         <v>-0.7283458055031994</v>
       </c>
       <c r="J12" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K12" t="n">
         <v>181</v>
@@ -27786,7 +27875,7 @@
         <v>-0.6225355986752398</v>
       </c>
       <c r="J13" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K13" t="n">
         <v>176</v>
@@ -27864,7 +27953,7 @@
         <v>-0.8079651691915035</v>
       </c>
       <c r="J14" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K14" t="n">
         <v>180</v>
@@ -27942,7 +28031,7 @@
         <v>-0.6231677715810954</v>
       </c>
       <c r="J15" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K15" t="n">
         <v>199</v>
@@ -28020,7 +28109,7 @@
         <v>-0.6187137592588433</v>
       </c>
       <c r="J16" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K16" t="n">
         <v>188</v>
@@ -28098,7 +28187,7 @@
         <v>-0.6285504971412222</v>
       </c>
       <c r="J17" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K17" t="n">
         <v>200</v>
@@ -28173,28 +28262,28 @@
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5348788026597127</v>
+        <v>-0.5295743382171602</v>
       </c>
       <c r="J18" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K18" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04245537315377179</v>
+        <v>0.04200240005534384</v>
       </c>
       <c r="M18" t="n">
-        <v>14.02683176122186</v>
+        <v>13.98182137796056</v>
       </c>
       <c r="N18" t="n">
-        <v>307.0715886142527</v>
+        <v>305.7116902684252</v>
       </c>
       <c r="O18" t="n">
-        <v>17.52345823786654</v>
+        <v>17.48461295735268</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3664995932846</v>
+        <v>370.3070081789728</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28251,28 +28340,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5179705601583851</v>
+        <v>-0.5148941613247721</v>
       </c>
       <c r="J19" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K19" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04583776584910848</v>
+        <v>0.04573053582115472</v>
       </c>
       <c r="M19" t="n">
-        <v>13.70551914579022</v>
+        <v>13.65314982955901</v>
       </c>
       <c r="N19" t="n">
-        <v>273.7524924298252</v>
+        <v>272.4845163473595</v>
       </c>
       <c r="O19" t="n">
-        <v>16.54546742856862</v>
+        <v>16.50710502624126</v>
       </c>
       <c r="P19" t="n">
-        <v>370.8350128543303</v>
+        <v>370.80165046189</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28329,28 +28418,28 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.322494531058474</v>
+        <v>-0.3170320645496114</v>
       </c>
       <c r="J20" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K20" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0171957989593392</v>
+        <v>0.01677879325311327</v>
       </c>
       <c r="M20" t="n">
-        <v>14.06716403260275</v>
+        <v>14.02188328173519</v>
       </c>
       <c r="N20" t="n">
-        <v>289.4389306216063</v>
+        <v>288.1041834896618</v>
       </c>
       <c r="O20" t="n">
-        <v>17.01290482609029</v>
+        <v>16.97363200642873</v>
       </c>
       <c r="P20" t="n">
-        <v>370.8653674333084</v>
+        <v>370.8051208703345</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28407,28 +28496,28 @@
         <v>0.0727</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.469024415798162</v>
+        <v>-0.4715413615974591</v>
       </c>
       <c r="J21" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K21" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03134043248341312</v>
+        <v>0.03196039248864813</v>
       </c>
       <c r="M21" t="n">
-        <v>14.42262616257664</v>
+        <v>14.36216619610547</v>
       </c>
       <c r="N21" t="n">
-        <v>321.5114659696519</v>
+        <v>319.9105526922925</v>
       </c>
       <c r="O21" t="n">
-        <v>17.93074080928203</v>
+        <v>17.88604351700768</v>
       </c>
       <c r="P21" t="n">
-        <v>377.4982552391248</v>
+        <v>377.5265481495859</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28485,28 +28574,28 @@
         <v>0.0864</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6154904425294681</v>
+        <v>-0.6128745145015753</v>
       </c>
       <c r="J22" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K22" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05554975380519622</v>
+        <v>0.05562027861420071</v>
       </c>
       <c r="M22" t="n">
-        <v>14.07560169874243</v>
+        <v>14.01567090551841</v>
       </c>
       <c r="N22" t="n">
-        <v>295.5929392001571</v>
+        <v>294.146476763996</v>
       </c>
       <c r="O22" t="n">
-        <v>17.19281649992686</v>
+        <v>17.15069901677468</v>
       </c>
       <c r="P22" t="n">
-        <v>381.7743799936039</v>
+        <v>381.7447192976167</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28563,28 +28652,28 @@
         <v>0.0733</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.7441209335348592</v>
+        <v>-0.7369469459194762</v>
       </c>
       <c r="J23" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K23" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07821815661375275</v>
+        <v>0.07746417537391892</v>
       </c>
       <c r="M23" t="n">
-        <v>14.25464127002406</v>
+        <v>14.21797330044893</v>
       </c>
       <c r="N23" t="n">
-        <v>314.5376752413147</v>
+        <v>313.2742061022549</v>
       </c>
       <c r="O23" t="n">
-        <v>17.73521004221023</v>
+        <v>17.69955383907331</v>
       </c>
       <c r="P23" t="n">
-        <v>382.7141555689723</v>
+        <v>382.635477462446</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28641,28 +28730,28 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.6806250507953844</v>
+        <v>-0.6800507664017195</v>
       </c>
       <c r="J24" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07124928867155345</v>
+        <v>0.07176388056163152</v>
       </c>
       <c r="M24" t="n">
-        <v>13.65984386216201</v>
+        <v>13.59826468929353</v>
       </c>
       <c r="N24" t="n">
-        <v>282.5158702504693</v>
+        <v>281.1911383864852</v>
       </c>
       <c r="O24" t="n">
-        <v>16.80820841881934</v>
+        <v>16.76875482516472</v>
       </c>
       <c r="P24" t="n">
-        <v>387.9205081782357</v>
+        <v>387.9140886213327</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28719,28 +28808,28 @@
         <v>0.0584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6229398293836867</v>
+        <v>-0.632381309095659</v>
       </c>
       <c r="J25" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K25" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06324478633465336</v>
+        <v>0.06553698925279405</v>
       </c>
       <c r="M25" t="n">
-        <v>13.14007341860089</v>
+        <v>13.1302210203997</v>
       </c>
       <c r="N25" t="n">
-        <v>267.4139937285568</v>
+        <v>266.5790971719562</v>
       </c>
       <c r="O25" t="n">
-        <v>16.35279773398292</v>
+        <v>16.32725014115838</v>
       </c>
       <c r="P25" t="n">
-        <v>395.8094809394033</v>
+        <v>395.9152646930599</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28797,28 +28886,28 @@
         <v>0.0496</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5826124203300411</v>
+        <v>-0.5856206529788174</v>
       </c>
       <c r="J26" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05526809465489779</v>
+        <v>0.05631335628674361</v>
       </c>
       <c r="M26" t="n">
-        <v>13.08606345434822</v>
+        <v>13.04042570602555</v>
       </c>
       <c r="N26" t="n">
-        <v>262.7447149200781</v>
+        <v>261.5357805269407</v>
       </c>
       <c r="O26" t="n">
-        <v>16.20940205313194</v>
+        <v>16.17206791127655</v>
       </c>
       <c r="P26" t="n">
-        <v>395.271982253923</v>
+        <v>395.3062209314858</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28875,28 +28964,28 @@
         <v>0.0501</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5240282833093957</v>
+        <v>-0.5161438348095543</v>
       </c>
       <c r="J27" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04483331356918252</v>
+        <v>0.04391790403056894</v>
       </c>
       <c r="M27" t="n">
-        <v>12.87618362136459</v>
+        <v>12.84481191421017</v>
       </c>
       <c r="N27" t="n">
-        <v>263.5814138136903</v>
+        <v>262.5871140408793</v>
       </c>
       <c r="O27" t="n">
-        <v>16.23519059985716</v>
+        <v>16.204539920679</v>
       </c>
       <c r="P27" t="n">
-        <v>391.5542020310853</v>
+        <v>391.4640348705321</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28953,28 +29042,28 @@
         <v>0.0549</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5646151850652112</v>
+        <v>-0.5672811307875549</v>
       </c>
       <c r="J28" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K28" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05441799295976368</v>
+        <v>0.05540405524383041</v>
       </c>
       <c r="M28" t="n">
-        <v>12.95926714117073</v>
+        <v>12.91045389403526</v>
       </c>
       <c r="N28" t="n">
-        <v>254.6198837539582</v>
+        <v>253.4174990878466</v>
       </c>
       <c r="O28" t="n">
-        <v>15.95681308262894</v>
+        <v>15.91909228215751</v>
       </c>
       <c r="P28" t="n">
-        <v>383.7299446241533</v>
+        <v>383.760120750045</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -29031,28 +29120,28 @@
         <v>0.0708</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7120969058882044</v>
+        <v>-0.7194206301744405</v>
       </c>
       <c r="J29" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K29" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1036524170231454</v>
+        <v>0.1063969103692803</v>
       </c>
       <c r="M29" t="n">
-        <v>11.6259031566004</v>
+        <v>11.60965620056589</v>
       </c>
       <c r="N29" t="n">
-        <v>204.3476928872872</v>
+        <v>203.6300332785777</v>
       </c>
       <c r="O29" t="n">
-        <v>14.2950233608514</v>
+        <v>14.26989955390639</v>
       </c>
       <c r="P29" t="n">
-        <v>379.1825700004217</v>
+        <v>379.2638167943808</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -29109,28 +29198,28 @@
         <v>0.0615</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.747633826609338</v>
+        <v>-0.7587557724013054</v>
       </c>
       <c r="J30" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K30" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" t="n">
-        <v>0.127392691728081</v>
+        <v>0.1315288816860598</v>
       </c>
       <c r="M30" t="n">
-        <v>10.68196357204384</v>
+        <v>10.68250885430116</v>
       </c>
       <c r="N30" t="n">
-        <v>175.9364384676265</v>
+        <v>175.6418915897765</v>
       </c>
       <c r="O30" t="n">
-        <v>13.26410337970971</v>
+        <v>13.25299557042771</v>
       </c>
       <c r="P30" t="n">
-        <v>381.7898054409616</v>
+        <v>381.9137401670393</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -29187,28 +29276,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6286994701388002</v>
+        <v>-0.643428569196999</v>
       </c>
       <c r="J31" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K31" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1037927926501596</v>
+        <v>0.1085360478137192</v>
       </c>
       <c r="M31" t="n">
-        <v>10.21305465202949</v>
+        <v>10.24140737353727</v>
       </c>
       <c r="N31" t="n">
-        <v>159.8729092902706</v>
+        <v>160.1325116586456</v>
       </c>
       <c r="O31" t="n">
-        <v>12.64408594127193</v>
+        <v>12.65434753982384</v>
       </c>
       <c r="P31" t="n">
-        <v>379.650087104251</v>
+        <v>379.8125095775047</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -29265,28 +29354,28 @@
         <v>0.0618</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3702789443459719</v>
+        <v>-0.3872410848382976</v>
       </c>
       <c r="J32" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K32" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03954999673972648</v>
+        <v>0.04317596818507119</v>
       </c>
       <c r="M32" t="n">
-        <v>10.03557373268792</v>
+        <v>10.08056950107995</v>
       </c>
       <c r="N32" t="n">
-        <v>152.4796900920715</v>
+        <v>153.0286642387886</v>
       </c>
       <c r="O32" t="n">
-        <v>12.34826668371199</v>
+        <v>12.37047550576729</v>
       </c>
       <c r="P32" t="n">
-        <v>387.287418474838</v>
+        <v>387.4766552295334</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -29343,28 +29432,28 @@
         <v>0.0643</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2615442849174959</v>
+        <v>-0.2770705392134329</v>
       </c>
       <c r="J33" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K33" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02358223912393842</v>
+        <v>0.02643503036889083</v>
       </c>
       <c r="M33" t="n">
-        <v>9.266644733599266</v>
+        <v>9.304262712626478</v>
       </c>
       <c r="N33" t="n">
-        <v>130.1908805040805</v>
+        <v>130.6583261626674</v>
       </c>
       <c r="O33" t="n">
-        <v>11.41012184440116</v>
+        <v>11.43058730611281</v>
       </c>
       <c r="P33" t="n">
-        <v>395.1779353140108</v>
+        <v>395.3513157040679</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -29421,28 +29510,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3910267717118927</v>
+        <v>-0.4054782293616343</v>
       </c>
       <c r="J34" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K34" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04207118324400283</v>
+        <v>0.04530745481629483</v>
       </c>
       <c r="M34" t="n">
-        <v>10.01398608630828</v>
+        <v>10.03135986133392</v>
       </c>
       <c r="N34" t="n">
-        <v>155.0019290258851</v>
+        <v>155.1167623132563</v>
       </c>
       <c r="O34" t="n">
-        <v>12.44997706929154</v>
+        <v>12.45458800254976</v>
       </c>
       <c r="P34" t="n">
-        <v>382.4577440307247</v>
+        <v>382.6220002257183</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -29480,7 +29569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI241"/>
+  <dimension ref="A1:AI242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66257,6 +66346,119 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>-36.244979904692585,175.47906548031392</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>-36.24568916746788,175.47925061229031</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>-36.246379706168085,175.47952975548372</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>-36.247096273078704,175.4796746661427</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>-36.247759231164395,175.48000825390662</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>-36.24839579781623,175.48042517025092</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>-36.24904451706844,175.48082060850692</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>-36.249679048996356,175.4812304648032</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>-36.2502190082787,175.48182174471236</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr">
+        <is>
+          <t>-36.250755981968325,175.48242962371657</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>-36.25144436974311,175.48279184283749</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>-36.2520996740241,175.48320994009075</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>-36.2526839048798,175.48375453692015</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>-36.2532000670234,175.4843984507135</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>-36.25360629213891,175.48515211927554</t>
+        </is>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>-36.25391235376617,175.48591809657967</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>-36.254188017274586,175.486738342416</t>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI242"/>
+  <dimension ref="A1:AI243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24388,6 +24388,117 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>349.28</v>
+      </c>
+      <c r="C243" t="n">
+        <v>347.36</v>
+      </c>
+      <c r="D243" t="n">
+        <v>348.03</v>
+      </c>
+      <c r="E243" t="n">
+        <v>348.1278947368421</v>
+      </c>
+      <c r="F243" t="n">
+        <v>340.7242857142857</v>
+      </c>
+      <c r="G243" t="n">
+        <v>342.1042857142857</v>
+      </c>
+      <c r="H243" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="I243" t="n">
+        <v>357.4966666666667</v>
+      </c>
+      <c r="J243" t="n">
+        <v>366.8778260869565</v>
+      </c>
+      <c r="K243" t="n">
+        <v>359.4018181818182</v>
+      </c>
+      <c r="L243" t="n">
+        <v>360.6842857142857</v>
+      </c>
+      <c r="M243" t="n">
+        <v>362.09</v>
+      </c>
+      <c r="N243" t="n">
+        <v>360.85</v>
+      </c>
+      <c r="O243" t="n">
+        <v>350.8718181818182</v>
+      </c>
+      <c r="P243" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>347.9529411764706</v>
+      </c>
+      <c r="R243" t="n">
+        <v>350.0833333333333</v>
+      </c>
+      <c r="S243" t="n">
+        <v>349.9666666666667</v>
+      </c>
+      <c r="T243" t="n">
+        <v>347.4066666666667</v>
+      </c>
+      <c r="U243" t="n">
+        <v>372.7166666666667</v>
+      </c>
+      <c r="V243" t="n">
+        <v>362.9233333333333</v>
+      </c>
+      <c r="W243" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="X243" t="n">
+        <v>371.36</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>374.53</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>387.4955555555555</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>372.3755555555555</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>367.51</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>350.3466666666667</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>348.7718181818182</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>349.7218181818182</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>360.5118181818182</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>368.6366666666667</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>346.9418181818182</v>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24399,7 +24510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26847,6 +26958,16 @@
       </c>
       <c r="B244" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -27014,28 +27135,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.03865149700546668</v>
+        <v>-0.05617488854117537</v>
       </c>
       <c r="J2" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001736952155179106</v>
+        <v>0.0003702858676991605</v>
       </c>
       <c r="M2" t="n">
-        <v>16.09819861639834</v>
+        <v>16.08473344424474</v>
       </c>
       <c r="N2" t="n">
-        <v>394.7037977610955</v>
+        <v>393.5933430632713</v>
       </c>
       <c r="O2" t="n">
-        <v>19.86715374081288</v>
+        <v>19.83918705651195</v>
       </c>
       <c r="P2" t="n">
-        <v>364.5634627977411</v>
+        <v>364.7613046172939</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27092,28 +27213,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.223861504198288</v>
+        <v>-0.2411298817715836</v>
       </c>
       <c r="J3" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005780825349654406</v>
+        <v>0.006761704029586646</v>
       </c>
       <c r="M3" t="n">
-        <v>15.7126464651369</v>
+        <v>15.70290056701334</v>
       </c>
       <c r="N3" t="n">
-        <v>387.0968744140893</v>
+        <v>386.0511577837307</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6747776204482</v>
+        <v>19.64818459257065</v>
       </c>
       <c r="P3" t="n">
-        <v>367.4147175336174</v>
+        <v>367.6125700519872</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27170,28 +27291,28 @@
         <v>0.0771</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1650222700332287</v>
+        <v>-0.1773955495559984</v>
       </c>
       <c r="J4" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00303669588532729</v>
+        <v>0.003543652058666247</v>
       </c>
       <c r="M4" t="n">
-        <v>15.92878098177437</v>
+        <v>15.88795798009819</v>
       </c>
       <c r="N4" t="n">
-        <v>404.2164912706592</v>
+        <v>402.521629713661</v>
       </c>
       <c r="O4" t="n">
-        <v>20.10513594260579</v>
+        <v>20.06294170139715</v>
       </c>
       <c r="P4" t="n">
-        <v>362.5971052123878</v>
+        <v>362.739291394597</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27248,28 +27369,28 @@
         <v>0.144</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03435115445117606</v>
+        <v>-0.04439698681273087</v>
       </c>
       <c r="J5" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K5" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001447677606334352</v>
+        <v>0.0002443413224147983</v>
       </c>
       <c r="M5" t="n">
-        <v>15.30792031149226</v>
+        <v>15.26667379159442</v>
       </c>
       <c r="N5" t="n">
-        <v>373.5469808259055</v>
+        <v>371.9066367218511</v>
       </c>
       <c r="O5" t="n">
-        <v>19.32736352495874</v>
+        <v>19.28488103986776</v>
       </c>
       <c r="P5" t="n">
-        <v>357.6549483404484</v>
+        <v>357.7690151793272</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27326,28 +27447,28 @@
         <v>0.0829</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08775259730141938</v>
+        <v>-0.1071679139081362</v>
       </c>
       <c r="J6" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001097056358872806</v>
+        <v>0.001645747837878186</v>
       </c>
       <c r="M6" t="n">
-        <v>14.28777672200898</v>
+        <v>14.29149562182289</v>
       </c>
       <c r="N6" t="n">
-        <v>331.5125686167732</v>
+        <v>331.3889817907823</v>
       </c>
       <c r="O6" t="n">
-        <v>18.20748660899612</v>
+        <v>18.20409244622709</v>
       </c>
       <c r="P6" t="n">
-        <v>360.6786909997141</v>
+        <v>360.8936041885107</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27404,28 +27525,28 @@
         <v>0.089</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1146299748726024</v>
+        <v>-0.1360527080200362</v>
       </c>
       <c r="J7" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00189894728121498</v>
+        <v>0.002687645871509714</v>
       </c>
       <c r="M7" t="n">
-        <v>14.32053231711074</v>
+        <v>14.34207479050958</v>
       </c>
       <c r="N7" t="n">
-        <v>324.1424751564019</v>
+        <v>324.3337130126367</v>
       </c>
       <c r="O7" t="n">
-        <v>18.00395720824735</v>
+        <v>18.00926742020998</v>
       </c>
       <c r="P7" t="n">
-        <v>364.2142637940487</v>
+        <v>364.4525825703749</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27482,28 +27603,28 @@
         <v>0.0785</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2302168032069821</v>
+        <v>-0.2563732239365853</v>
       </c>
       <c r="J8" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K8" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007349168569303344</v>
+        <v>0.009116483448428969</v>
       </c>
       <c r="M8" t="n">
-        <v>14.64073526218003</v>
+        <v>14.69412621463294</v>
       </c>
       <c r="N8" t="n">
-        <v>352.5863211451102</v>
+        <v>353.8034730786677</v>
       </c>
       <c r="O8" t="n">
-        <v>18.7772820489311</v>
+        <v>18.80966435316344</v>
       </c>
       <c r="P8" t="n">
-        <v>367.7884605725573</v>
+        <v>368.0742747914263</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27560,28 +27681,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2900771345803699</v>
+        <v>-0.3019175767136625</v>
       </c>
       <c r="J9" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K9" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01133820124466089</v>
+        <v>0.01238404242837055</v>
       </c>
       <c r="M9" t="n">
-        <v>15.24643749337772</v>
+        <v>15.22771977742527</v>
       </c>
       <c r="N9" t="n">
-        <v>357.2725316400104</v>
+        <v>355.9816887288015</v>
       </c>
       <c r="O9" t="n">
-        <v>18.90165420379947</v>
+        <v>18.86747701015696</v>
       </c>
       <c r="P9" t="n">
-        <v>375.8536632633154</v>
+        <v>375.9836166005131</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27638,28 +27759,28 @@
         <v>0.1448</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2790347928294414</v>
+        <v>-0.2875434703167455</v>
       </c>
       <c r="J10" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01146324256737563</v>
+        <v>0.01229239269183657</v>
       </c>
       <c r="M10" t="n">
-        <v>14.48859804843452</v>
+        <v>14.45857460483592</v>
       </c>
       <c r="N10" t="n">
-        <v>319.9687570798262</v>
+        <v>318.5383077598867</v>
       </c>
       <c r="O10" t="n">
-        <v>17.88767053251558</v>
+        <v>17.84764151813586</v>
       </c>
       <c r="P10" t="n">
-        <v>381.5978147312566</v>
+        <v>381.6917584606546</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27716,28 +27837,28 @@
         <v>0.0693</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5185877593870859</v>
+        <v>-0.5374724662582852</v>
       </c>
       <c r="J11" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K11" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03243342497234769</v>
+        <v>0.03499563630531144</v>
       </c>
       <c r="M11" t="n">
-        <v>14.87584581675196</v>
+        <v>14.89943640723905</v>
       </c>
       <c r="N11" t="n">
-        <v>389.6466942254393</v>
+        <v>389.1055122733748</v>
       </c>
       <c r="O11" t="n">
-        <v>19.73947046466645</v>
+        <v>19.72575758426973</v>
       </c>
       <c r="P11" t="n">
-        <v>389.9570283836525</v>
+        <v>390.1643333792825</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27794,28 +27915,28 @@
         <v>0.0851</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7283458055031994</v>
+        <v>-0.7432812557201637</v>
       </c>
       <c r="J12" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K12" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0656688203090442</v>
+        <v>0.06874779111719553</v>
       </c>
       <c r="M12" t="n">
-        <v>14.26089200814825</v>
+        <v>14.26870541108837</v>
       </c>
       <c r="N12" t="n">
-        <v>372.4108591828045</v>
+        <v>371.3492686972378</v>
       </c>
       <c r="O12" t="n">
-        <v>19.29794961084738</v>
+        <v>19.27042471501959</v>
       </c>
       <c r="P12" t="n">
-        <v>393.0233449727172</v>
+        <v>393.186275760509</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27872,28 +27993,28 @@
         <v>0.1336</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6225355986752398</v>
+        <v>-0.6328863288171156</v>
       </c>
       <c r="J13" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K13" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05144165183068294</v>
+        <v>0.0535561395119547</v>
       </c>
       <c r="M13" t="n">
-        <v>14.78746287723379</v>
+        <v>14.75375030809111</v>
       </c>
       <c r="N13" t="n">
-        <v>361.1475796357302</v>
+        <v>359.6031839066509</v>
       </c>
       <c r="O13" t="n">
-        <v>19.00388327778641</v>
+        <v>18.96320605558698</v>
       </c>
       <c r="P13" t="n">
-        <v>387.6408647146797</v>
+        <v>387.753261175331</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27950,28 +28071,28 @@
         <v>0.1258</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8079651691915035</v>
+        <v>-0.8125364057501403</v>
       </c>
       <c r="J14" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K14" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08938908137578239</v>
+        <v>0.09113530322978347</v>
       </c>
       <c r="M14" t="n">
-        <v>14.70692617844788</v>
+        <v>14.65369234635042</v>
       </c>
       <c r="N14" t="n">
-        <v>332.5471065252015</v>
+        <v>330.8113415643915</v>
       </c>
       <c r="O14" t="n">
-        <v>18.23587416399887</v>
+        <v>18.18821985694014</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0703188356596</v>
+        <v>386.1207099382192</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28028,28 +28149,28 @@
         <v>0.0611</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6231677715810954</v>
+        <v>-0.6359985865442614</v>
       </c>
       <c r="J15" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K15" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06133611789201332</v>
+        <v>0.06416359949249273</v>
       </c>
       <c r="M15" t="n">
-        <v>13.47592310301581</v>
+        <v>13.47582759970493</v>
       </c>
       <c r="N15" t="n">
-        <v>286.2651281148825</v>
+        <v>285.6204599641428</v>
       </c>
       <c r="O15" t="n">
-        <v>16.91937138651677</v>
+        <v>16.9003094635614</v>
       </c>
       <c r="P15" t="n">
-        <v>379.6296355285418</v>
+        <v>379.772211792051</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28106,28 +28227,28 @@
         <v>0.0751</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6187137592588433</v>
+        <v>-0.6241768486160315</v>
       </c>
       <c r="J16" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K16" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06562285099618703</v>
+        <v>0.06733163863017655</v>
       </c>
       <c r="M16" t="n">
-        <v>13.31743354321156</v>
+        <v>13.27605047574924</v>
       </c>
       <c r="N16" t="n">
-        <v>264.6872917595318</v>
+        <v>263.4251159413737</v>
       </c>
       <c r="O16" t="n">
-        <v>16.26921300369295</v>
+        <v>16.23037633394167</v>
       </c>
       <c r="P16" t="n">
-        <v>376.4072539860205</v>
+        <v>376.4678702802299</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28184,28 +28305,28 @@
         <v>0.1098</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6285504971412222</v>
+        <v>-0.6388046571118056</v>
       </c>
       <c r="J17" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05845739308287323</v>
+        <v>0.06071381102770002</v>
       </c>
       <c r="M17" t="n">
-        <v>13.86713342833859</v>
+        <v>13.85361338095833</v>
       </c>
       <c r="N17" t="n">
-        <v>306.4133277561984</v>
+        <v>305.4145459157249</v>
       </c>
       <c r="O17" t="n">
-        <v>17.50466588530608</v>
+        <v>17.47611358156398</v>
       </c>
       <c r="P17" t="n">
-        <v>374.5662120756106</v>
+        <v>374.6811994511056</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28262,28 +28383,28 @@
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5295743382171602</v>
+        <v>-0.5358978380555974</v>
       </c>
       <c r="J18" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K18" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04200240005534384</v>
+        <v>0.04332557602221632</v>
       </c>
       <c r="M18" t="n">
-        <v>13.98182137796056</v>
+        <v>13.94867993991958</v>
       </c>
       <c r="N18" t="n">
-        <v>305.7116902684252</v>
+        <v>304.4251709259664</v>
       </c>
       <c r="O18" t="n">
-        <v>17.48461295735268</v>
+        <v>17.44778412652926</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3070081789728</v>
+        <v>370.378441093596</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28340,28 +28461,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5148941613247721</v>
+        <v>-0.5221547247295787</v>
       </c>
       <c r="J19" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K19" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04573053582115472</v>
+        <v>0.04736225564661423</v>
       </c>
       <c r="M19" t="n">
-        <v>13.65314982955901</v>
+        <v>13.62748693800738</v>
       </c>
       <c r="N19" t="n">
-        <v>272.4845163473595</v>
+        <v>271.4471559955711</v>
       </c>
       <c r="O19" t="n">
-        <v>16.50710502624126</v>
+        <v>16.47565343152043</v>
       </c>
       <c r="P19" t="n">
-        <v>370.80165046189</v>
+        <v>370.880940749612</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28418,28 +28539,28 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3170320645496114</v>
+        <v>-0.3323053405659769</v>
       </c>
       <c r="J20" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K20" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01677879325311327</v>
+        <v>0.01850872506663082</v>
       </c>
       <c r="M20" t="n">
-        <v>14.02188328173519</v>
+        <v>14.02959897769307</v>
       </c>
       <c r="N20" t="n">
-        <v>288.1041834896618</v>
+        <v>287.7952086868706</v>
       </c>
       <c r="O20" t="n">
-        <v>16.97363200642873</v>
+        <v>16.96452795355269</v>
       </c>
       <c r="P20" t="n">
-        <v>370.8051208703345</v>
+        <v>370.9748018746408</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28496,28 +28617,28 @@
         <v>0.0727</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4715413615974591</v>
+        <v>-0.4640775256396822</v>
       </c>
       <c r="J21" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K21" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03196039248864813</v>
+        <v>0.03125575441714179</v>
       </c>
       <c r="M21" t="n">
-        <v>14.36216619610547</v>
+        <v>14.3261512771726</v>
       </c>
       <c r="N21" t="n">
-        <v>319.9105526922925</v>
+        <v>318.5664301191404</v>
       </c>
       <c r="O21" t="n">
-        <v>17.88604351700768</v>
+        <v>17.84842934599962</v>
       </c>
       <c r="P21" t="n">
-        <v>377.5265481495859</v>
+        <v>377.4420474203959</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28574,28 +28695,28 @@
         <v>0.0864</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6128745145015753</v>
+        <v>-0.6159472896759122</v>
       </c>
       <c r="J22" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05562027861420071</v>
+        <v>0.05667713370464422</v>
       </c>
       <c r="M22" t="n">
-        <v>14.01567090551841</v>
+        <v>13.96304098475794</v>
       </c>
       <c r="N22" t="n">
-        <v>294.146476763996</v>
+        <v>292.7262325696034</v>
       </c>
       <c r="O22" t="n">
-        <v>17.15069901677468</v>
+        <v>17.10924406774313</v>
       </c>
       <c r="P22" t="n">
-        <v>381.7447192976167</v>
+        <v>381.7797948445965</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28652,28 +28773,28 @@
         <v>0.0733</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.7369469459194762</v>
+        <v>-0.7308494186171144</v>
       </c>
       <c r="J23" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K23" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07746417537391892</v>
+        <v>0.07693672712031319</v>
       </c>
       <c r="M23" t="n">
-        <v>14.21797330044893</v>
+        <v>14.17702963159455</v>
       </c>
       <c r="N23" t="n">
-        <v>313.2742061022549</v>
+        <v>311.9518119307194</v>
       </c>
       <c r="O23" t="n">
-        <v>17.69955383907331</v>
+        <v>17.66215762387822</v>
       </c>
       <c r="P23" t="n">
-        <v>382.635477462446</v>
+        <v>382.5681416320301</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28730,28 +28851,28 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.6800507664017195</v>
+        <v>-0.679046930867816</v>
       </c>
       <c r="J24" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K24" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07176388056163152</v>
+        <v>0.07220422574000307</v>
       </c>
       <c r="M24" t="n">
-        <v>13.59826468929353</v>
+        <v>13.53908528823298</v>
       </c>
       <c r="N24" t="n">
-        <v>281.1911383864852</v>
+        <v>279.8821144380781</v>
       </c>
       <c r="O24" t="n">
-        <v>16.76875482516472</v>
+        <v>16.7296776549364</v>
       </c>
       <c r="P24" t="n">
-        <v>387.9140886213327</v>
+        <v>387.9027913623032</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28808,28 +28929,28 @@
         <v>0.0584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.632381309095659</v>
+        <v>-0.6373209909214537</v>
       </c>
       <c r="J25" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K25" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06553698925279405</v>
+        <v>0.06707400491542836</v>
       </c>
       <c r="M25" t="n">
-        <v>13.1302210203997</v>
+        <v>13.09518718423757</v>
       </c>
       <c r="N25" t="n">
-        <v>266.5790971719562</v>
+        <v>265.4391566289977</v>
       </c>
       <c r="O25" t="n">
-        <v>16.32725014115838</v>
+        <v>16.29230360105647</v>
       </c>
       <c r="P25" t="n">
-        <v>395.9152646930599</v>
+        <v>395.9709815914147</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -28886,28 +29007,28 @@
         <v>0.0496</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5856206529788174</v>
+        <v>-0.5782523847788837</v>
       </c>
       <c r="J26" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K26" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05631335628674361</v>
+        <v>0.05544482177377286</v>
       </c>
       <c r="M26" t="n">
-        <v>13.04042570602555</v>
+        <v>13.0070987274868</v>
       </c>
       <c r="N26" t="n">
-        <v>261.5357805269407</v>
+        <v>260.547757131571</v>
       </c>
       <c r="O26" t="n">
-        <v>16.17206791127655</v>
+        <v>16.14149178767474</v>
       </c>
       <c r="P26" t="n">
-        <v>395.3062209314858</v>
+        <v>395.2218069274404</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28964,28 +29085,28 @@
         <v>0.0501</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5161438348095543</v>
+        <v>-0.5220089739311693</v>
       </c>
       <c r="J27" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K27" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04391790403056894</v>
+        <v>0.04527879142596369</v>
       </c>
       <c r="M27" t="n">
-        <v>12.84481191421017</v>
+        <v>12.81472743195215</v>
       </c>
       <c r="N27" t="n">
-        <v>262.5871140408793</v>
+        <v>261.4752597013976</v>
       </c>
       <c r="O27" t="n">
-        <v>16.204539920679</v>
+        <v>16.17019665005338</v>
       </c>
       <c r="P27" t="n">
-        <v>391.4640348705321</v>
+        <v>391.531550840018</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -29042,28 +29163,28 @@
         <v>0.0549</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5672811307875549</v>
+        <v>-0.5688678023942588</v>
       </c>
       <c r="J28" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K28" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05540405524383041</v>
+        <v>0.05621408463086652</v>
       </c>
       <c r="M28" t="n">
-        <v>12.91045389403526</v>
+        <v>12.85630840900378</v>
       </c>
       <c r="N28" t="n">
-        <v>253.4174990878466</v>
+        <v>252.2050861453627</v>
       </c>
       <c r="O28" t="n">
-        <v>15.91909228215751</v>
+        <v>15.88096615906484</v>
       </c>
       <c r="P28" t="n">
-        <v>383.760120750045</v>
+        <v>383.7782012897882</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -29120,28 +29241,28 @@
         <v>0.0708</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7194206301744405</v>
+        <v>-0.7297278324232777</v>
       </c>
       <c r="J29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K29" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1063969103692803</v>
+        <v>0.1098781257568875</v>
       </c>
       <c r="M29" t="n">
-        <v>11.60965620056589</v>
+        <v>11.60856800096583</v>
       </c>
       <c r="N29" t="n">
-        <v>203.6300332785777</v>
+        <v>203.1633239459608</v>
       </c>
       <c r="O29" t="n">
-        <v>14.26989955390639</v>
+        <v>14.25353724329371</v>
       </c>
       <c r="P29" t="n">
-        <v>379.2638167943808</v>
+        <v>379.3789083425163</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -29198,28 +29319,28 @@
         <v>0.0615</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7587557724013054</v>
+        <v>-0.7726887734088943</v>
       </c>
       <c r="J30" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K30" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1315288816860598</v>
+        <v>0.1363900969803206</v>
       </c>
       <c r="M30" t="n">
-        <v>10.68250885430116</v>
+        <v>10.69774759136682</v>
       </c>
       <c r="N30" t="n">
-        <v>175.6418915897765</v>
+        <v>175.6622493509625</v>
       </c>
       <c r="O30" t="n">
-        <v>13.25299557042771</v>
+        <v>13.25376359193729</v>
       </c>
       <c r="P30" t="n">
-        <v>381.9137401670393</v>
+        <v>382.0699896297471</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -29276,28 +29397,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.643428569196999</v>
+        <v>-0.6568456889131911</v>
       </c>
       <c r="J31" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K31" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1085360478137192</v>
+        <v>0.1130857905300591</v>
       </c>
       <c r="M31" t="n">
-        <v>10.24140737353727</v>
+        <v>10.26174244980116</v>
       </c>
       <c r="N31" t="n">
-        <v>160.1325116586456</v>
+        <v>160.2171335817308</v>
       </c>
       <c r="O31" t="n">
-        <v>12.65434753982384</v>
+        <v>12.65769068913168</v>
       </c>
       <c r="P31" t="n">
-        <v>379.8125095775047</v>
+        <v>379.9614267346313</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -29354,28 +29475,28 @@
         <v>0.0618</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3872410848382976</v>
+        <v>-0.4046975391491294</v>
       </c>
       <c r="J32" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K32" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04317596818507119</v>
+        <v>0.04704172516930061</v>
       </c>
       <c r="M32" t="n">
-        <v>10.08056950107995</v>
+        <v>10.12870140292734</v>
       </c>
       <c r="N32" t="n">
-        <v>153.0286642387886</v>
+        <v>153.6471137095895</v>
       </c>
       <c r="O32" t="n">
-        <v>12.37047550576729</v>
+        <v>12.39544729768109</v>
       </c>
       <c r="P32" t="n">
-        <v>387.4766552295334</v>
+        <v>387.6726422340389</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -29432,28 +29553,28 @@
         <v>0.0643</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2770705392134329</v>
+        <v>-0.2970330842869761</v>
       </c>
       <c r="J33" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K33" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02643503036889083</v>
+        <v>0.03016209810608694</v>
       </c>
       <c r="M33" t="n">
-        <v>9.304262712626478</v>
+        <v>9.364752692800161</v>
       </c>
       <c r="N33" t="n">
-        <v>130.6583261626674</v>
+        <v>131.8285272606996</v>
       </c>
       <c r="O33" t="n">
-        <v>11.43058730611281</v>
+        <v>11.48166047489211</v>
       </c>
       <c r="P33" t="n">
-        <v>395.3513157040679</v>
+        <v>395.575668409416</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -29510,28 +29631,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.4054782293616343</v>
+        <v>-0.4325296737206408</v>
       </c>
       <c r="J34" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K34" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04530745481629483</v>
+        <v>0.05080137749814517</v>
       </c>
       <c r="M34" t="n">
-        <v>10.03135986133392</v>
+        <v>10.10752110537419</v>
       </c>
       <c r="N34" t="n">
-        <v>155.1167623132563</v>
+        <v>157.4190451469839</v>
       </c>
       <c r="O34" t="n">
-        <v>12.45458800254976</v>
+        <v>12.54667466490559</v>
       </c>
       <c r="P34" t="n">
-        <v>382.6220002257183</v>
+        <v>382.9313877927761</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -29569,7 +29690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI242"/>
+  <dimension ref="A1:AI243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66459,6 +66580,183 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>-36.233527870349654,175.47716603539257</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-36.2342527483089,175.47714470023496</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-36.234977231792335,175.47715216588438</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-36.23570179421308,175.47715326971397</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-36.23643214531764,175.47707088054142</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>-36.23716316750502,175.47713164136096</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>-36.2378932661919,175.47717311432487</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>-36.23859282859803,175.47748482270006</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>-36.2393036274314,175.4776798447309</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>-36.24003292931313,175.47768852527147</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>-36.24074500337975,175.47784928635497</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>-36.241448492089404,175.47806449667323</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>-36.24215745692594,175.47825128547495</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>-36.24288520739665,175.47834369011085</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>-36.24358207734989,175.47859116197796</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>-36.244304049397925,175.47871252442002</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>-36.245005740608946,175.47893571710154</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>-36.245712257926186,175.47913463812912</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>-36.2464240235578,175.47930716676785</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>-36.24707134715981,175.47977893261765</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>-36.247778842756055,175.47995142411375</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>-36.24840035603923,175.48041414162356</t>
+        </is>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>-36.24904304682656,175.4808240140306</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>-36.249657548923764,175.48127105581688</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>-36.25016333008534,175.48191207645712</t>
+        </is>
+      </c>
+      <c r="AA243" t="inlineStr">
+        <is>
+          <t>-36.25082923572949,175.4823107775051</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>-36.25143918624751,175.4828002525134</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>-36.25211747522053,175.48318198506487</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>-36.25270259461812,175.4837303715885</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>-36.25319330057755,175.48440590296332</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>-36.253611857198564,175.48514675427668</t>
+        </is>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>-36.25395066871939,175.4858983912085</t>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t>-36.25429403664218,175.48671194948867</t>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI243"/>
+  <dimension ref="A1:AI244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24499,6 +24499,117 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>349.83</v>
+      </c>
+      <c r="C244" t="n">
+        <v>348.65</v>
+      </c>
+      <c r="D244" t="n">
+        <v>340.0707692307692</v>
+      </c>
+      <c r="E244" t="n">
+        <v>335.161052631579</v>
+      </c>
+      <c r="F244" t="n">
+        <v>338.3128571428572</v>
+      </c>
+      <c r="G244" t="n">
+        <v>336.9228571428571</v>
+      </c>
+      <c r="H244" t="n">
+        <v>346.7307692307692</v>
+      </c>
+      <c r="I244" t="n">
+        <v>345.99</v>
+      </c>
+      <c r="J244" t="n">
+        <v>343.078695652174</v>
+      </c>
+      <c r="K244" t="n">
+        <v>358.52</v>
+      </c>
+      <c r="L244" t="n">
+        <v>358.2128571428572</v>
+      </c>
+      <c r="M244" t="n">
+        <v>322.59</v>
+      </c>
+      <c r="N244" t="n">
+        <v>351.73</v>
+      </c>
+      <c r="O244" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="P244" t="n">
+        <v>353.6407692307693</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>349.4570588235294</v>
+      </c>
+      <c r="R244" t="n">
+        <v>345.54</v>
+      </c>
+      <c r="S244" t="n">
+        <v>343.22</v>
+      </c>
+      <c r="T244" t="n">
+        <v>328.65</v>
+      </c>
+      <c r="U244" t="n">
+        <v>364.44</v>
+      </c>
+      <c r="V244" t="n">
+        <v>365.03</v>
+      </c>
+      <c r="W244" t="n">
+        <v>363.2307692307692</v>
+      </c>
+      <c r="X244" t="n">
+        <v>367.3607692307692</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>372.64</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>370.71</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>362.78</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>357.35</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>349.39</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>344.24</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>349.65</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>337.19</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>356.69</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>349.4</v>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24510,7 +24621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26968,6 +27079,16 @@
       </c>
       <c r="B245" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -27135,28 +27256,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.05617488854117537</v>
+        <v>-0.0725201800230576</v>
       </c>
       <c r="J2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K2" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003702858676991605</v>
+        <v>0.0006229167788087686</v>
       </c>
       <c r="M2" t="n">
-        <v>16.08473344424474</v>
+        <v>16.06671170140363</v>
       </c>
       <c r="N2" t="n">
-        <v>393.5933430632713</v>
+        <v>392.3703388048721</v>
       </c>
       <c r="O2" t="n">
-        <v>19.83918705651195</v>
+        <v>19.80834013250157</v>
       </c>
       <c r="P2" t="n">
-        <v>364.7613046172939</v>
+        <v>364.9463465194478</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27213,28 +27334,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2411298817715836</v>
+        <v>-0.2563513835405078</v>
       </c>
       <c r="J3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K3" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006761704029586646</v>
+        <v>0.007708577302316222</v>
       </c>
       <c r="M3" t="n">
-        <v>15.70290056701334</v>
+        <v>15.68358102886365</v>
       </c>
       <c r="N3" t="n">
-        <v>386.0511577837307</v>
+        <v>384.7882825681466</v>
       </c>
       <c r="O3" t="n">
-        <v>19.64818459257065</v>
+        <v>19.61602106871183</v>
       </c>
       <c r="P3" t="n">
-        <v>367.6125700519872</v>
+        <v>367.7874385454343</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27291,28 +27412,28 @@
         <v>0.0771</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1773955495559984</v>
+        <v>-0.1988769233503916</v>
       </c>
       <c r="J4" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003543652058666247</v>
+        <v>0.004481588606601195</v>
       </c>
       <c r="M4" t="n">
-        <v>15.88795798009819</v>
+        <v>15.88294170768392</v>
       </c>
       <c r="N4" t="n">
-        <v>402.521629713661</v>
+        <v>402.0628830456759</v>
       </c>
       <c r="O4" t="n">
-        <v>20.06294170139715</v>
+        <v>20.05150575507176</v>
       </c>
       <c r="P4" t="n">
-        <v>362.739291394597</v>
+        <v>362.9868237527552</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27369,28 +27490,28 @@
         <v>0.144</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04439698681273087</v>
+        <v>-0.06909567872251986</v>
       </c>
       <c r="J5" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002443413224147983</v>
+        <v>0.0005944668948253407</v>
       </c>
       <c r="M5" t="n">
-        <v>15.26667379159442</v>
+        <v>15.28663306631307</v>
       </c>
       <c r="N5" t="n">
-        <v>371.9066367218511</v>
+        <v>372.3456076783738</v>
       </c>
       <c r="O5" t="n">
-        <v>19.28488103986776</v>
+        <v>19.29625890369358</v>
       </c>
       <c r="P5" t="n">
-        <v>357.7690151793272</v>
+        <v>358.0502319177586</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27447,28 +27568,28 @@
         <v>0.0829</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1071679139081362</v>
+        <v>-0.1286963756468963</v>
       </c>
       <c r="J6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001645747837878186</v>
+        <v>0.002383690975938046</v>
       </c>
       <c r="M6" t="n">
-        <v>14.29149562182289</v>
+        <v>14.30294333748614</v>
       </c>
       <c r="N6" t="n">
-        <v>331.3889817907823</v>
+        <v>331.6693419851619</v>
       </c>
       <c r="O6" t="n">
-        <v>18.20409244622709</v>
+        <v>18.2117912898529</v>
       </c>
       <c r="P6" t="n">
-        <v>360.8936041885107</v>
+        <v>361.1325664519167</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27525,28 +27646,28 @@
         <v>0.089</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1360527080200362</v>
+        <v>-0.1626431710260814</v>
       </c>
       <c r="J7" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K7" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002687645871509714</v>
+        <v>0.003844495502379752</v>
       </c>
       <c r="M7" t="n">
-        <v>14.34207479050958</v>
+        <v>14.38582138129158</v>
       </c>
       <c r="N7" t="n">
-        <v>324.3337130126367</v>
+        <v>325.6023311122049</v>
       </c>
       <c r="O7" t="n">
-        <v>18.00926742020998</v>
+        <v>18.04445430353062</v>
       </c>
       <c r="P7" t="n">
-        <v>364.4525825703749</v>
+        <v>364.7492034200875</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27603,28 +27724,28 @@
         <v>0.0785</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2563732239365853</v>
+        <v>-0.2720514127598282</v>
       </c>
       <c r="J8" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K8" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009116483448428969</v>
+        <v>0.01033086026118057</v>
       </c>
       <c r="M8" t="n">
-        <v>14.69412621463294</v>
+        <v>14.69684652150938</v>
       </c>
       <c r="N8" t="n">
-        <v>353.8034730786677</v>
+        <v>353.0518230390401</v>
       </c>
       <c r="O8" t="n">
-        <v>18.80966435316344</v>
+        <v>18.78967330847027</v>
       </c>
       <c r="P8" t="n">
-        <v>368.0742747914263</v>
+        <v>368.2461015224494</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27681,28 +27802,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3019175767136625</v>
+        <v>-0.3258635773128228</v>
       </c>
       <c r="J9" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K9" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01238404242837055</v>
+        <v>0.01444941801874866</v>
       </c>
       <c r="M9" t="n">
-        <v>15.22771977742527</v>
+        <v>15.27228042400962</v>
       </c>
       <c r="N9" t="n">
-        <v>355.9816887288015</v>
+        <v>356.6590299837479</v>
       </c>
       <c r="O9" t="n">
-        <v>18.86747701015696</v>
+        <v>18.88541844873308</v>
       </c>
       <c r="P9" t="n">
-        <v>375.9836166005131</v>
+        <v>376.2472000404292</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27759,28 +27880,28 @@
         <v>0.1448</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2875434703167455</v>
+        <v>-0.3225173035638854</v>
       </c>
       <c r="J10" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K10" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01229239269183657</v>
+        <v>0.01534537883550879</v>
       </c>
       <c r="M10" t="n">
-        <v>14.45857460483592</v>
+        <v>14.57760914775928</v>
       </c>
       <c r="N10" t="n">
-        <v>318.5383077598867</v>
+        <v>321.957546236308</v>
       </c>
       <c r="O10" t="n">
-        <v>17.84764151813586</v>
+        <v>17.94317547805594</v>
       </c>
       <c r="P10" t="n">
-        <v>381.6917584606546</v>
+        <v>382.0789837991571</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27837,28 +27958,28 @@
         <v>0.0693</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5374724662582852</v>
+        <v>-0.5567883759992599</v>
       </c>
       <c r="J11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K11" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03499563630531144</v>
+        <v>0.03770626549725242</v>
       </c>
       <c r="M11" t="n">
-        <v>14.89943640723905</v>
+        <v>14.92659434208029</v>
       </c>
       <c r="N11" t="n">
-        <v>389.1055122733748</v>
+        <v>388.6739426028265</v>
       </c>
       <c r="O11" t="n">
-        <v>19.72575758426973</v>
+        <v>19.71481530734758</v>
       </c>
       <c r="P11" t="n">
-        <v>390.1643333792825</v>
+        <v>390.3769865717381</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27915,28 +28036,28 @@
         <v>0.0851</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7432812557201637</v>
+        <v>-0.7604770574518792</v>
       </c>
       <c r="J12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K12" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06874779111719553</v>
+        <v>0.07223567265535935</v>
       </c>
       <c r="M12" t="n">
-        <v>14.26870541108837</v>
+        <v>14.29106547465098</v>
       </c>
       <c r="N12" t="n">
-        <v>371.3492686972378</v>
+        <v>370.6445145788801</v>
       </c>
       <c r="O12" t="n">
-        <v>19.27042471501959</v>
+        <v>19.25213013094604</v>
       </c>
       <c r="P12" t="n">
-        <v>393.186275760509</v>
+        <v>393.3744225948603</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27993,28 +28114,28 @@
         <v>0.1336</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6328863288171156</v>
+        <v>-0.6857761578473892</v>
       </c>
       <c r="J13" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K13" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0535561395119547</v>
+        <v>0.06084139062762417</v>
       </c>
       <c r="M13" t="n">
-        <v>14.75375030809111</v>
+        <v>14.93762619394893</v>
       </c>
       <c r="N13" t="n">
-        <v>359.6031839066509</v>
+        <v>370.7169214734014</v>
       </c>
       <c r="O13" t="n">
-        <v>18.96320605558698</v>
+        <v>19.25401052958582</v>
       </c>
       <c r="P13" t="n">
-        <v>387.753261175331</v>
+        <v>388.3293880741276</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28071,28 +28192,28 @@
         <v>0.1258</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8125364057501403</v>
+        <v>-0.8265035420623672</v>
       </c>
       <c r="J14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K14" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09113530322978347</v>
+        <v>0.09462173604156121</v>
       </c>
       <c r="M14" t="n">
-        <v>14.65369234635042</v>
+        <v>14.65779295881184</v>
       </c>
       <c r="N14" t="n">
-        <v>330.8113415643915</v>
+        <v>329.9532342680944</v>
       </c>
       <c r="O14" t="n">
-        <v>18.18821985694014</v>
+        <v>18.16461489457165</v>
       </c>
       <c r="P14" t="n">
-        <v>386.1207099382192</v>
+        <v>386.2751715920711</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28149,28 +28270,28 @@
         <v>0.0611</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6359985865442614</v>
+        <v>-0.6489954028405426</v>
       </c>
       <c r="J15" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K15" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06416359949249273</v>
+        <v>0.06708195271705042</v>
       </c>
       <c r="M15" t="n">
-        <v>13.47582759970493</v>
+        <v>13.47618054955903</v>
       </c>
       <c r="N15" t="n">
-        <v>285.6204599641428</v>
+        <v>285.0161734044557</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9003094635614</v>
+        <v>16.88242202423739</v>
       </c>
       <c r="P15" t="n">
-        <v>379.772211792051</v>
+        <v>379.9170576774733</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28227,28 +28348,28 @@
         <v>0.0751</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6241768486160315</v>
+        <v>-0.6311540651639626</v>
       </c>
       <c r="J16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K16" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06733163863017655</v>
+        <v>0.06935379815664411</v>
       </c>
       <c r="M16" t="n">
-        <v>13.27605047574924</v>
+        <v>13.24288780896672</v>
       </c>
       <c r="N16" t="n">
-        <v>263.4251159413737</v>
+        <v>262.2671344849171</v>
       </c>
       <c r="O16" t="n">
-        <v>16.23037633394167</v>
+        <v>16.19466376572595</v>
       </c>
       <c r="P16" t="n">
-        <v>376.4678702802299</v>
+        <v>376.5455190927429</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28305,28 +28426,28 @@
         <v>0.1098</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6388046571118056</v>
+        <v>-0.6473128192206021</v>
       </c>
       <c r="J17" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K17" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06071381102770002</v>
+        <v>0.06273088024286499</v>
       </c>
       <c r="M17" t="n">
-        <v>13.85361338095833</v>
+        <v>13.83053916309232</v>
       </c>
       <c r="N17" t="n">
-        <v>305.4145459157249</v>
+        <v>304.268337203891</v>
       </c>
       <c r="O17" t="n">
-        <v>17.47611358156398</v>
+        <v>17.44328917388836</v>
       </c>
       <c r="P17" t="n">
-        <v>374.6811994511056</v>
+        <v>374.7768973597141</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28383,28 +28504,28 @@
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5358978380555974</v>
+        <v>-0.5464239780147733</v>
       </c>
       <c r="J18" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K18" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04332557602221632</v>
+        <v>0.04528554650737993</v>
       </c>
       <c r="M18" t="n">
-        <v>13.94867993991958</v>
+        <v>13.93866629894242</v>
       </c>
       <c r="N18" t="n">
-        <v>304.4251709259664</v>
+        <v>303.5203145960165</v>
       </c>
       <c r="O18" t="n">
-        <v>17.44778412652926</v>
+        <v>17.42183442109402</v>
       </c>
       <c r="P18" t="n">
-        <v>370.378441093596</v>
+        <v>370.4977113409733</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28461,28 +28582,28 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5221547247295787</v>
+        <v>-0.5356871726562791</v>
       </c>
       <c r="J19" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K19" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04736225564661423</v>
+        <v>0.05002053640603621</v>
       </c>
       <c r="M19" t="n">
-        <v>13.62748693800738</v>
+        <v>13.63735590632953</v>
       </c>
       <c r="N19" t="n">
-        <v>271.4471559955711</v>
+        <v>271.0903145991486</v>
       </c>
       <c r="O19" t="n">
-        <v>16.47565343152043</v>
+        <v>16.46482051524245</v>
       </c>
       <c r="P19" t="n">
-        <v>370.880940749612</v>
+        <v>371.0291621164548</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28539,28 +28660,28 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3323053405659769</v>
+        <v>-0.3659072015160546</v>
       </c>
       <c r="J20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K20" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01850872506663082</v>
+        <v>0.02213812622001254</v>
       </c>
       <c r="M20" t="n">
-        <v>14.02959897769307</v>
+        <v>14.13069644661785</v>
       </c>
       <c r="N20" t="n">
-        <v>287.7952086868706</v>
+        <v>292.0166633611553</v>
       </c>
       <c r="O20" t="n">
-        <v>16.96452795355269</v>
+        <v>17.08849505840568</v>
       </c>
       <c r="P20" t="n">
-        <v>370.9748018746408</v>
+        <v>371.3492574258661</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28617,28 +28738,28 @@
         <v>0.0727</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4640775256396822</v>
+        <v>-0.4650470182152362</v>
       </c>
       <c r="J21" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K21" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03125575441714179</v>
+        <v>0.03167759646890023</v>
       </c>
       <c r="M21" t="n">
-        <v>14.3261512771726</v>
+        <v>14.25905038658244</v>
       </c>
       <c r="N21" t="n">
-        <v>318.5664301191404</v>
+        <v>316.9702256035661</v>
       </c>
       <c r="O21" t="n">
-        <v>17.84842934599962</v>
+        <v>17.80365764677489</v>
       </c>
       <c r="P21" t="n">
-        <v>377.4420474203959</v>
+        <v>377.4530565171716</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28695,28 +28816,28 @@
         <v>0.0864</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6159472896759122</v>
+        <v>-0.6167446111308138</v>
       </c>
       <c r="J22" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K22" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05667713370464422</v>
+        <v>0.05735458449700048</v>
       </c>
       <c r="M22" t="n">
-        <v>13.96304098475794</v>
+        <v>13.89830488853614</v>
       </c>
       <c r="N22" t="n">
-        <v>292.7262325696034</v>
+        <v>291.2800331775079</v>
       </c>
       <c r="O22" t="n">
-        <v>17.10924406774313</v>
+        <v>17.06692805332899</v>
       </c>
       <c r="P22" t="n">
-        <v>381.7797948445965</v>
+        <v>381.788922143785</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28773,28 +28894,28 @@
         <v>0.0733</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.7308494186171144</v>
+        <v>-0.7312227484823749</v>
       </c>
       <c r="J23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K23" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07693672712031319</v>
+        <v>0.07770443749568423</v>
       </c>
       <c r="M23" t="n">
-        <v>14.17702963159455</v>
+        <v>14.1111627342875</v>
       </c>
       <c r="N23" t="n">
-        <v>311.9518119307194</v>
+        <v>310.4599160039709</v>
       </c>
       <c r="O23" t="n">
-        <v>17.66215762387822</v>
+        <v>17.61987275788253</v>
       </c>
       <c r="P23" t="n">
-        <v>382.5681416320301</v>
+        <v>382.5722764340319</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28851,28 +28972,28 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.679046930867816</v>
+        <v>-0.6818645335419034</v>
       </c>
       <c r="J24" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K24" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07220422574000307</v>
+        <v>0.07339567535802138</v>
       </c>
       <c r="M24" t="n">
-        <v>13.53908528823298</v>
+        <v>13.49090426850247</v>
       </c>
       <c r="N24" t="n">
-        <v>279.8821144380781</v>
+        <v>278.619768169031</v>
       </c>
       <c r="O24" t="n">
-        <v>16.7296776549364</v>
+        <v>16.69190726576897</v>
       </c>
       <c r="P24" t="n">
-        <v>387.9027913623032</v>
+        <v>387.9345916364315</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28929,28 +29050,28 @@
         <v>0.0584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6373209909214537</v>
+        <v>-0.643954711370533</v>
       </c>
       <c r="J25" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K25" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06707400491542836</v>
+        <v>0.0689471141710829</v>
       </c>
       <c r="M25" t="n">
-        <v>13.09518718423757</v>
+        <v>13.06943926412837</v>
       </c>
       <c r="N25" t="n">
-        <v>265.4391566289977</v>
+        <v>264.4071707479507</v>
       </c>
       <c r="O25" t="n">
-        <v>16.29230360105647</v>
+        <v>16.26060179538109</v>
       </c>
       <c r="P25" t="n">
-        <v>395.9709815914147</v>
+        <v>396.0460186984195</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29007,28 +29128,28 @@
         <v>0.0496</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5782523847788837</v>
+        <v>-0.5877343704412759</v>
       </c>
       <c r="J26" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K26" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05544482177377286</v>
+        <v>0.05761401287986856</v>
       </c>
       <c r="M26" t="n">
-        <v>13.0070987274868</v>
+        <v>12.99803293052189</v>
       </c>
       <c r="N26" t="n">
-        <v>260.547757131571</v>
+        <v>259.7397559958701</v>
       </c>
       <c r="O26" t="n">
-        <v>16.14149178767474</v>
+        <v>16.11644365224134</v>
       </c>
       <c r="P26" t="n">
-        <v>395.2218069274404</v>
+        <v>395.3307379619413</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -29085,28 +29206,28 @@
         <v>0.0501</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5220089739311693</v>
+        <v>-0.537439960196384</v>
       </c>
       <c r="J27" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K27" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04527879142596369</v>
+        <v>0.04812468493398803</v>
       </c>
       <c r="M27" t="n">
-        <v>12.81472743195215</v>
+        <v>12.83628295327372</v>
       </c>
       <c r="N27" t="n">
-        <v>261.4752597013976</v>
+        <v>261.3147904726243</v>
       </c>
       <c r="O27" t="n">
-        <v>16.17019665005338</v>
+        <v>16.16523400612018</v>
       </c>
       <c r="P27" t="n">
-        <v>391.531550840018</v>
+        <v>391.7096772910062</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -29163,28 +29284,28 @@
         <v>0.0549</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5688678023942588</v>
+        <v>-0.580530020286082</v>
       </c>
       <c r="J28" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K28" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05621408463086652</v>
+        <v>0.05880407681984223</v>
       </c>
       <c r="M28" t="n">
-        <v>12.85630840900378</v>
+        <v>12.85464011443924</v>
       </c>
       <c r="N28" t="n">
-        <v>252.2050861453627</v>
+        <v>251.6384708461163</v>
       </c>
       <c r="O28" t="n">
-        <v>15.88096615906484</v>
+        <v>15.86311668134974</v>
       </c>
       <c r="P28" t="n">
-        <v>383.7782012897882</v>
+        <v>383.9114729270008</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -29241,28 +29362,28 @@
         <v>0.0708</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7297278324232777</v>
+        <v>-0.7407022309872521</v>
       </c>
       <c r="J29" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K29" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1098781257568875</v>
+        <v>0.1135569655015553</v>
       </c>
       <c r="M29" t="n">
-        <v>11.60856800096583</v>
+        <v>11.61061120733598</v>
       </c>
       <c r="N29" t="n">
-        <v>203.1633239459608</v>
+        <v>202.7759061772515</v>
       </c>
       <c r="O29" t="n">
-        <v>14.25353724329371</v>
+        <v>14.23994052576244</v>
       </c>
       <c r="P29" t="n">
-        <v>379.3789083425163</v>
+        <v>379.5017883771706</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -29319,28 +29440,28 @@
         <v>0.0615</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7726887734088943</v>
+        <v>-0.7908741344102095</v>
       </c>
       <c r="J30" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K30" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1363900969803206</v>
+        <v>0.1421946521013266</v>
       </c>
       <c r="M30" t="n">
-        <v>10.69774759136682</v>
+        <v>10.7355396515354</v>
       </c>
       <c r="N30" t="n">
-        <v>175.6622493509625</v>
+        <v>176.3105227978715</v>
       </c>
       <c r="O30" t="n">
-        <v>13.25376359193729</v>
+        <v>13.2781972721402</v>
       </c>
       <c r="P30" t="n">
-        <v>382.0699896297471</v>
+        <v>382.2744768440782</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -29397,28 +29518,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6568456889131911</v>
+        <v>-0.6699848640337636</v>
       </c>
       <c r="J31" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K31" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1130857905300591</v>
+        <v>0.1176377024990584</v>
       </c>
       <c r="M31" t="n">
-        <v>10.26174244980116</v>
+        <v>10.28007572644263</v>
       </c>
       <c r="N31" t="n">
-        <v>160.2171335817308</v>
+        <v>160.2801817219853</v>
       </c>
       <c r="O31" t="n">
-        <v>12.65769068913168</v>
+        <v>12.66018095139186</v>
       </c>
       <c r="P31" t="n">
-        <v>379.9614267346313</v>
+        <v>380.1076600487437</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -29475,28 +29596,28 @@
         <v>0.0618</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.4046975391491294</v>
+        <v>-0.4455337380646994</v>
       </c>
       <c r="J32" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K32" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04704172516930061</v>
+        <v>0.0544965114046202</v>
       </c>
       <c r="M32" t="n">
-        <v>10.12870140292734</v>
+        <v>10.30865208648505</v>
       </c>
       <c r="N32" t="n">
-        <v>153.6471137095895</v>
+        <v>160.3836103552641</v>
       </c>
       <c r="O32" t="n">
-        <v>12.39544729768109</v>
+        <v>12.66426509337451</v>
       </c>
       <c r="P32" t="n">
-        <v>387.6726422340389</v>
+        <v>388.1323485556268</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -29553,28 +29674,28 @@
         <v>0.0643</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2970330842869761</v>
+        <v>-0.328611697447198</v>
       </c>
       <c r="J33" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K33" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03016209810608694</v>
+        <v>0.03583689430583048</v>
       </c>
       <c r="M33" t="n">
-        <v>9.364752692800161</v>
+        <v>9.489522952306855</v>
       </c>
       <c r="N33" t="n">
-        <v>131.8285272606996</v>
+        <v>135.7436685976461</v>
       </c>
       <c r="O33" t="n">
-        <v>11.48166047489211</v>
+        <v>11.65090848808135</v>
       </c>
       <c r="P33" t="n">
-        <v>395.575668409416</v>
+        <v>395.9315349428611</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -29631,28 +29752,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.4325296737206408</v>
+        <v>-0.4562799704312924</v>
       </c>
       <c r="J34" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K34" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05080137749814517</v>
+        <v>0.05597176345481136</v>
       </c>
       <c r="M34" t="n">
-        <v>10.10752110537419</v>
+        <v>10.17162363867351</v>
       </c>
       <c r="N34" t="n">
-        <v>157.4190451469839</v>
+        <v>159.0427383557585</v>
       </c>
       <c r="O34" t="n">
-        <v>12.54667466490559</v>
+        <v>12.61121478509341</v>
       </c>
       <c r="P34" t="n">
-        <v>382.9313877927761</v>
+        <v>383.2037374632385</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -29690,7 +29811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI243"/>
+  <dimension ref="A1:AI244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66757,6 +66878,183 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>-36.2335277880067,175.47717215136467</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>-36.234252555175374,175.47715904510218</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>-36.23497842340762,175.477063658003</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>-36.23570373554964,175.47700907508283</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>-36.23643305176531,175.47704408423087</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>-36.237167486565966,175.4770742606555</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>-36.23788349645251,175.4772745091084</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>-36.23860507365526,175.47735773899706</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>-36.23932895404544,175.47741699635677</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>-36.24003411434658,175.47767882703874</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>-36.2407496687424,175.4778224079558</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>-36.24153343758599,175.47763785127438</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>-36.24217706991002,175.4781527782384</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>-36.242886286584444,175.47833826980832</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>-36.24358553811865,175.4785737800057</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>-36.244300814669394,175.4787287711652</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>-36.24501551148148,175.47888664181127</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>-36.245726767366214,175.47906176267892</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>-36.24646436192306,175.4791045611095</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>-36.24709245598432,175.47969063328483</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>-36.247771403067674,175.4799729825981</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>-36.24842725804049,175.48034905211637</t>
+        </is>
+      </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>-36.24905999535212,175.4807847561122</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>-36.249666868910964,175.4812534601738</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>-36.25025491655707,175.48176348735635</t>
+        </is>
+      </c>
+      <c r="AA244" t="inlineStr">
+        <is>
+          <t>-36.25088159182184,175.4822258352268</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>-36.251494622340125,175.48271031318407</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>-36.2521228025847,175.48317361895977</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>-36.25273079326141,175.48369391146434</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>-36.25319378345853,175.48440537114067</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>-36.25377747895645,175.484987086089</t>
+        </is>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>-36.254050032521725,175.485847288337</t>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t>-36.25427232531494,175.48671735440715</t>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0120/nzd0120.xlsx
+++ b/data/nzd0120/nzd0120.xlsx
@@ -27252,9 +27252,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0663</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.07252018002305741</v>
       </c>
@@ -27328,10 +27334,10 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0445</v>
+        <v>0.0453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0565</v>
+        <v>0.0613</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2563513835405078</v>
@@ -27403,13 +27409,13 @@
         <v>0.06258017967133947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0533</v>
+        <v>0.0508</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0771</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.198880177189074</v>
@@ -27481,13 +27487,13 @@
         <v>0.0938702695070092</v>
       </c>
       <c r="F5" t="n">
-        <v>0.095</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736</v>
+        <v>0.057</v>
       </c>
       <c r="H5" t="n">
-        <v>0.144</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>-0.06912185348874986</v>
@@ -27559,13 +27565,13 @@
         <v>0.1251603593426789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
         <v>0.0613</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0829</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1287276589535087</v>
@@ -27637,13 +27643,13 @@
         <v>0.156409836340987</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0608</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.089</v>
+        <v>0.0993</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1626666093086759</v>
@@ -27718,10 +27724,10 @@
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.054</v>
+        <v>0.0553</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0785</v>
+        <v>0.0776</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2720357020435287</v>
@@ -27793,13 +27799,13 @@
         <v>0.2189900160126837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0543</v>
+        <v>0.0582</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0722</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>-0.325831994256598</v>
@@ -27871,13 +27877,13 @@
         <v>0.2502801058484135</v>
       </c>
       <c r="F10" t="n">
-        <v>0.115</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0926</v>
+        <v>0.0569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1448</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.3225524500005055</v>
@@ -27952,10 +27958,10 @@
         <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0481</v>
+        <v>0.0479</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0693</v>
+        <v>0.0703</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5567597920265891</v>
@@ -28027,13 +28033,13 @@
         <v>0.3128013602288019</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0593</v>
+        <v>0.0518</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0851</v>
+        <v>0.0771</v>
       </c>
       <c r="I12" t="n">
         <v>-0.7605050261991144</v>
@@ -28105,13 +28111,13 @@
         <v>0.3440914500645345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0814</v>
+        <v>0.0535</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1336</v>
+        <v>0.0861</v>
       </c>
       <c r="I13" t="n">
         <v>-0.6857761578473892</v>
@@ -28183,13 +28189,13 @@
         <v>0.3753815399002672</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0829</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1258</v>
+        <v>0.1244</v>
       </c>
       <c r="I14" t="n">
         <v>-0.8265035420623676</v>
@@ -28261,13 +28267,13 @@
         <v>0.4066716297359998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0476</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0611</v>
+        <v>0.1041</v>
       </c>
       <c r="I15" t="n">
         <v>-0.6489604110689252</v>
@@ -28342,10 +28348,10 @@
         <v>0.065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0592</v>
+        <v>0.0554</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0751</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>-0.6311563487661037</v>
@@ -28417,13 +28423,13 @@
         <v>0.469251809407465</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.0776</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1098</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>-0.6473105935175378</v>
@@ -28495,13 +28501,13 @@
         <v>0.5005418992431977</v>
       </c>
       <c r="F18" t="n">
-        <v>0.075</v>
+        <v>0.195</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0649</v>
+        <v>0.0941</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
         <v>-0.5464315553716029</v>
@@ -28573,13 +28579,13 @@
         <v>0.5318319890789303</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0507</v>
+        <v>0.0545</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="I19" t="n">
         <v>-0.5356779088322676</v>
@@ -28651,13 +28657,13 @@
         <v>0.5631220789146629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0545</v>
+        <v>0.0587</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0849</v>
       </c>
       <c r="I20" t="n">
         <v>-0.3659025318468508</v>
@@ -28729,13 +28735,13 @@
         <v>0.5944121687503956</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0535</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0727</v>
+        <v>0.1177</v>
       </c>
       <c r="I21" t="n">
         <v>-0.4650331641982234</v>
@@ -28807,13 +28813,13 @@
         <v>0.6255020257106847</v>
       </c>
       <c r="F22" t="n">
-        <v>0.075</v>
+        <v>0.06</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0636</v>
+        <v>0.0501</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0864</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>-0.6167581529049907</v>
@@ -28888,10 +28894,10 @@
         <v>0.065</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0558</v>
+        <v>0.0513</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0733</v>
+        <v>0.0822</v>
       </c>
       <c r="I23" t="n">
         <v>-0.7312181891151094</v>
@@ -28963,13 +28969,13 @@
         <v>0.6880822053823029</v>
       </c>
       <c r="F24" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0575</v>
+        <v>0.059</v>
       </c>
       <c r="H24" t="n">
-        <v>0.075</v>
+        <v>0.1105</v>
       </c>
       <c r="I24" t="n">
         <v>-0.681844619877659</v>
@@ -29041,13 +29047,13 @@
         <v>0.7192921357166462</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0471</v>
+        <v>0.0605</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0584</v>
+        <v>0.0989</v>
       </c>
       <c r="I25" t="n">
         <v>-0.643954711370533</v>
@@ -29119,13 +29125,13 @@
         <v>0.7505822255519495</v>
       </c>
       <c r="F26" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0418</v>
+        <v>0.0434</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0496</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I26" t="n">
         <v>-0.5877645915880559</v>
@@ -29197,13 +29203,13 @@
         <v>0.7818723153879439</v>
       </c>
       <c r="F27" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0414</v>
+        <v>0.0432</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0501</v>
+        <v>0.0572</v>
       </c>
       <c r="I27" t="n">
         <v>-0.5374668513524903</v>
@@ -29275,13 +29281,13 @@
         <v>0.8131624052232472</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0435</v>
+        <v>0.0489</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0549</v>
+        <v>0.0688</v>
       </c>
       <c r="I28" t="n">
         <v>-0.580530020286082</v>
@@ -29353,13 +29359,13 @@
         <v>0.8444524950583158</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0541</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0708</v>
+        <v>0.0863</v>
       </c>
       <c r="I29" t="n">
         <v>-0.7406978125597073</v>
@@ -29431,13 +29437,13 @@
         <v>0.8756632878557886</v>
       </c>
       <c r="F30" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0494</v>
+        <v>0.0668</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0615</v>
+        <v>0.0877</v>
       </c>
       <c r="I30" t="n">
         <v>-0.7908464463916798</v>
@@ -29509,13 +29515,13 @@
         <v>0.9069533776918252</v>
       </c>
       <c r="F31" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0513</v>
+        <v>0.0736</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.1087</v>
       </c>
       <c r="I31" t="n">
         <v>-0.6699588313070374</v>
@@ -29587,13 +29593,13 @@
         <v>0.9382434675270043</v>
       </c>
       <c r="F32" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0528</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0618</v>
+        <v>0.1004</v>
       </c>
       <c r="I32" t="n">
         <v>-0.4455157713724394</v>
@@ -29665,13 +29671,13 @@
         <v>0.9687099101639048</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G33" t="n">
-        <v>0.054</v>
+        <v>0.0781</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0643</v>
+        <v>0.1039</v>
       </c>
       <c r="I33" t="n">
         <v>-0.3286011494322547</v>
@@ -29743,13 +29749,13 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0501</v>
+        <v>0.0689</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="I34" t="n">
         <v>-0.4562557252193209</v>
